--- a/AoC2022_Day10.xlsx
+++ b/AoC2022_Day10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e1735959cbf115bc/Documents/AoC 2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="188" documentId="11_F25DC773A252ABDACC1048CC0198568A5ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB6BDD8A-491E-4685-9C0B-3665E698E624}"/>
+  <xr:revisionPtr revIDLastSave="217" documentId="11_F25DC773A252ABDACC1048CC0198568A5ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FD81465-F179-48F2-B288-72DD03290F73}"/>
   <bookViews>
-    <workbookView xWindow="4245" yWindow="4860" windowWidth="27015" windowHeight="25365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5325" yWindow="9405" windowWidth="27015" windowHeight="21960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -277,7 +277,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -294,6 +295,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -559,16 +564,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AT241"/>
+  <dimension ref="A1:AT242"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="46" width="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="45" width="2.140625" customWidth="1"/>
+    <col min="46" max="46" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.25">
@@ -584,15 +587,8 @@
         <v/>
       </c>
       <c r="D1" cm="1">
-        <f t="array" aca="1" ref="D1:D241" ca="1">_xlfn.NUMBERVALUE(_xlfn.TEXTSPLIT(_xlfn.CONCAT(_xlfn.BYROW(_xlfn.HSTACK(_xlfn.ANCHORARRAY(B1),_xlfn.ANCHORARRAY(C1)),_xlfn.LAMBDA(_xlpm.a,","&amp;_xlfn.TEXTJOIN(",",,_xlpm.a)))),,","))</f>
-        <v>0</v>
-      </c>
-      <c r="E1" cm="1">
-        <f t="array" aca="1" ref="E1" ca="1">SUM(INDEX(_xlfn.ANCHORARRAY(D1),_xlfn.SEQUENCE(6,1,19,40))*_xlfn.SEQUENCE(6,1,20,40))</f>
-        <v>15880</v>
-      </c>
-      <c r="G1" t="s">
-        <v>54</v>
+        <f t="array" aca="1" ref="D1:D242" ca="1">_xlfn.VSTACK(1,1,_xlfn.DROP(_xlfn.NUMBERVALUE(_xlfn.TEXTSPLIT(_xlfn.CONCAT(_xlfn.BYROW(_xlfn.HSTACK(_xlfn.ANCHORARRAY(B1),_xlfn.ANCHORARRAY(C1)),_xlfn.LAMBDA(_xlpm.a,","&amp;_xlfn.TEXTJOIN(",",,_xlpm.a)))),,",")),1))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
@@ -611,169 +607,6 @@
         <f ca="1"/>
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" t="str" cm="1">
-        <f t="array" aca="1" ref="G2:AT7" ca="1">_xlfn.LET(_xlpm.x,_xlfn.SEQUENCE(1,40),_xlfn.MAP(INDEX(_xlfn.ANCHORARRAY(D1),_xlfn.SEQUENCE(6,40)),_xlfn.VSTACK(_xlpm.x,_xlpm.x,_xlpm.x,_xlpm.x,_xlpm.x,_xlpm.x),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,IF(OR(_xlpm.b+1=_xlpm.a,_xlpm.b-1=_xlpm.a,_xlpm.a=_xlpm.b),"#",""))))</f>
-        <v>#</v>
-      </c>
-      <c r="H2" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="I2" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="J2" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="K2" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="L2" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="M2" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="N2" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="O2" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="P2" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="Q2" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="R2" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="S2" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="T2" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="U2" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="V2" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="W2" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="X2" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="Y2" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="Z2" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AA2" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AB2" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AC2" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AD2" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AE2" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AF2" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AG2" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AH2" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AI2" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AJ2" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AK2" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AL2" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AM2" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AN2" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AO2" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AP2" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AQ2" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AR2" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AS2" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AT2" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -791,166 +624,6 @@
         <f ca="1"/>
         <v>1</v>
       </c>
-      <c r="G3" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="H3" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="I3" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="J3" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="K3" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="L3" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="M3" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="N3" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="O3" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="P3" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="Q3" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="R3" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="S3" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="T3" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="U3" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="V3" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="W3" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="X3" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="Y3" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="Z3" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AA3" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AB3" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AC3" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AD3" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AE3" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AF3" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AG3" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AH3" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AI3" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AJ3" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AK3" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AL3" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AM3" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AN3" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AO3" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AP3" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AQ3" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AR3" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AS3" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AT3" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -968,166 +641,6 @@
         <f ca="1"/>
         <v>1</v>
       </c>
-      <c r="G4" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="H4" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="I4" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="J4" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="K4" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="L4" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="M4" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="N4" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="O4" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="P4" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="Q4" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="R4" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="S4" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="T4" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="U4" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="V4" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="W4" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="X4" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="Y4" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="Z4" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AA4" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AB4" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AC4" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AD4" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AE4" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AF4" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AG4" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AH4" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AI4" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AJ4" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AK4" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AL4" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AM4" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AN4" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AO4" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AP4" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AQ4" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AR4" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AS4" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AT4" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1143,167 +656,7 @@
       </c>
       <c r="D5">
         <f ca="1"/>
-        <v>4</v>
-      </c>
-      <c r="G5" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="H5" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="I5" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="J5" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="K5" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="L5" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="M5" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="N5" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="O5" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="P5" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="Q5" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="R5" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="S5" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="T5" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="U5" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="V5" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="W5" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="X5" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="Y5" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="Z5" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AA5" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AB5" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AC5" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AD5" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AE5" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AF5" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AG5" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AH5" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AI5" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AJ5" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AK5" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AL5" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AM5" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AN5" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AO5" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AP5" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AQ5" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AR5" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AS5" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AT5" t="str">
-        <f ca="1"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.25">
@@ -1322,165 +675,8 @@
         <f ca="1"/>
         <v>4</v>
       </c>
-      <c r="G6" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="H6" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="I6" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="J6" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="K6" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="L6" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="M6" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="N6" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="O6" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="P6" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="Q6" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="R6" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="S6" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="T6" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="U6" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="V6" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="W6" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="X6" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="Y6" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="Z6" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AA6" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AB6" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AC6" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AD6" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AE6" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AF6" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AG6" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AH6" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AI6" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AJ6" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AK6" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AL6" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AM6" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AN6" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AO6" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AP6" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AQ6" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AR6" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AS6" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AT6" t="str">
-        <f ca="1"/>
-        <v/>
+      <c r="G6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.25">
@@ -1497,168 +693,15 @@
       </c>
       <c r="D7">
         <f ca="1"/>
-        <v>24</v>
-      </c>
-      <c r="G7" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="H7" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="I7" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="J7" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="K7" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="L7" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="M7" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="N7" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="O7" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="P7" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="Q7" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="R7" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="S7" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="T7" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="U7" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="V7" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="W7" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="X7" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="Y7" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="Z7" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AA7" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AB7" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AC7" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AD7" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AE7" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AF7" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AG7" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AH7" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AI7" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AJ7" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AK7" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AL7" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AM7" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AN7" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AO7" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AP7" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AQ7" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AR7" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AS7" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AT7" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G7" s="1" cm="1">
+        <f t="array" aca="1" ref="G7" ca="1">SUM(INDEX(_xlfn.ANCHORARRAY(D1),_xlfn.SEQUENCE(6,1,20,40))*_xlfn.SEQUENCE(6,1,20,40))</f>
+        <v>15880</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1693,6 +736,9 @@
         <f ca="1"/>
         <v>24</v>
       </c>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1708,7 +754,167 @@
       </c>
       <c r="D10">
         <f ca="1"/>
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="G10" t="str" cm="1">
+        <f t="array" aca="1" ref="G10:AT15" ca="1">_xlfn.LET(_xlpm.x,_xlfn.SEQUENCE(1,40,0),_xlfn.MAP(INDEX(_xlfn.ANCHORARRAY(D1),_xlfn.SEQUENCE(6,40)),_xlfn.VSTACK(_xlpm.x,_xlpm.x,_xlpm.x,_xlpm.x,_xlpm.x,_xlpm.x),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,IF(OR(_xlpm.b+1=_xlpm.a,_xlpm.b-1=_xlpm.a,_xlpm.a=_xlpm.b),"#",""))))</f>
+        <v>#</v>
+      </c>
+      <c r="H10" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="I10" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="J10" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="L10" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="M10" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="N10" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="O10" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="P10" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="Q10" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="R10" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="S10" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="T10" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="U10" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="V10" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="W10" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="X10" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="Y10" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="Z10" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AA10" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="AB10" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AC10" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AD10" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="AE10" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AF10" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AG10" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="AH10" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="AI10" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AJ10" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AK10" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="AL10" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="AM10" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="AN10" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="AO10" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AP10" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AQ10" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="AR10" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="AS10" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AT10" t="str">
+        <f ca="1"/>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.25">
@@ -1727,165 +933,165 @@
         <f ca="1"/>
         <v>12</v>
       </c>
-      <c r="G11" cm="1">
-        <f t="array" aca="1" ref="G11:AT16" ca="1">INDEX(_xlfn.ANCHORARRAY(D1),_xlfn.SEQUENCE(6,40))</f>
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <f ca="1"/>
-        <v>4</v>
-      </c>
-      <c r="L11">
-        <f ca="1"/>
-        <v>4</v>
-      </c>
-      <c r="M11">
-        <f ca="1"/>
-        <v>24</v>
-      </c>
-      <c r="N11">
-        <f ca="1"/>
-        <v>24</v>
-      </c>
-      <c r="O11">
-        <f ca="1"/>
-        <v>24</v>
-      </c>
-      <c r="P11">
-        <f ca="1"/>
-        <v>12</v>
-      </c>
-      <c r="Q11">
-        <f ca="1"/>
-        <v>12</v>
-      </c>
-      <c r="R11">
-        <f ca="1"/>
-        <v>12</v>
-      </c>
-      <c r="S11">
-        <f ca="1"/>
-        <v>16</v>
-      </c>
-      <c r="T11">
-        <f ca="1"/>
-        <v>16</v>
-      </c>
-      <c r="U11">
-        <f ca="1"/>
-        <v>16</v>
-      </c>
-      <c r="V11">
-        <f ca="1"/>
-        <v>16</v>
-      </c>
-      <c r="W11">
-        <f ca="1"/>
-        <v>16</v>
-      </c>
-      <c r="X11">
-        <f ca="1"/>
-        <v>17</v>
-      </c>
-      <c r="Y11">
-        <f ca="1"/>
-        <v>17</v>
-      </c>
-      <c r="Z11">
-        <f ca="1"/>
-        <v>19</v>
-      </c>
-      <c r="AA11">
-        <f ca="1"/>
-        <v>19</v>
-      </c>
-      <c r="AB11">
-        <f ca="1"/>
-        <v>24</v>
-      </c>
-      <c r="AC11">
-        <f ca="1"/>
-        <v>24</v>
-      </c>
-      <c r="AD11">
-        <f ca="1"/>
-        <v>40</v>
-      </c>
-      <c r="AE11">
-        <f ca="1"/>
-        <v>40</v>
-      </c>
-      <c r="AF11">
-        <f ca="1"/>
-        <v>26</v>
-      </c>
-      <c r="AG11">
-        <f ca="1"/>
-        <v>26</v>
-      </c>
-      <c r="AH11">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AI11">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AJ11">
-        <f ca="1"/>
-        <v>31</v>
-      </c>
-      <c r="AK11">
-        <f ca="1"/>
-        <v>31</v>
-      </c>
-      <c r="AL11">
-        <f ca="1"/>
-        <v>32</v>
-      </c>
-      <c r="AM11">
-        <f ca="1"/>
-        <v>32</v>
-      </c>
-      <c r="AN11">
-        <f ca="1"/>
-        <v>32</v>
-      </c>
-      <c r="AO11">
-        <f ca="1"/>
-        <v>37</v>
-      </c>
-      <c r="AP11">
-        <f ca="1"/>
-        <v>37</v>
-      </c>
-      <c r="AQ11">
-        <f ca="1"/>
-        <v>37</v>
-      </c>
-      <c r="AR11">
-        <f ca="1"/>
-        <v>-1</v>
-      </c>
-      <c r="AS11">
-        <f ca="1"/>
-        <v>-1</v>
-      </c>
-      <c r="AT11">
-        <f ca="1"/>
-        <v>-1</v>
+      <c r="G11" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="H11" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="J11" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="K11" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="L11" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="M11" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="N11" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="O11" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="P11" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="Q11" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="R11" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="S11" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="T11" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="U11" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="V11" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="W11" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="X11" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="Y11" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="Z11" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AA11" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="AB11" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AC11" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="AD11" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AE11" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AF11" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="AG11" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AH11" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AI11" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="AJ11" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AK11" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AL11" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AM11" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AN11" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="AO11" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AP11" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="AQ11" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AR11" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AS11" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="AT11" t="str">
+        <f ca="1"/>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.25">
@@ -1904,165 +1110,165 @@
         <f ca="1"/>
         <v>12</v>
       </c>
-      <c r="G12">
-        <f ca="1"/>
-        <v>-1</v>
-      </c>
-      <c r="H12">
-        <f ca="1"/>
-        <v>-1</v>
-      </c>
-      <c r="I12">
-        <f ca="1"/>
-        <v>2</v>
-      </c>
-      <c r="J12">
-        <f ca="1"/>
-        <v>2</v>
-      </c>
-      <c r="K12">
-        <f ca="1"/>
-        <v>4</v>
-      </c>
-      <c r="L12">
-        <f ca="1"/>
-        <v>4</v>
-      </c>
-      <c r="M12">
-        <f ca="1"/>
-        <v>4</v>
-      </c>
-      <c r="N12">
-        <f ca="1"/>
-        <v>4</v>
-      </c>
-      <c r="O12">
-        <f ca="1"/>
-        <v>4</v>
-      </c>
-      <c r="P12">
-        <f ca="1"/>
-        <v>9</v>
-      </c>
-      <c r="Q12">
-        <f ca="1"/>
-        <v>9</v>
-      </c>
-      <c r="R12">
-        <f ca="1"/>
-        <v>14</v>
-      </c>
-      <c r="S12">
-        <f ca="1"/>
-        <v>14</v>
-      </c>
-      <c r="T12">
-        <f ca="1"/>
-        <v>16</v>
-      </c>
-      <c r="U12">
-        <f ca="1"/>
-        <v>16</v>
-      </c>
-      <c r="V12">
-        <f ca="1"/>
-        <v>29</v>
-      </c>
-      <c r="W12">
-        <f ca="1"/>
-        <v>29</v>
-      </c>
-      <c r="X12">
-        <f ca="1"/>
-        <v>35</v>
-      </c>
-      <c r="Y12">
-        <f ca="1"/>
-        <v>35</v>
-      </c>
-      <c r="Z12">
-        <f ca="1"/>
-        <v>19</v>
-      </c>
-      <c r="AA12">
-        <f ca="1"/>
-        <v>19</v>
-      </c>
-      <c r="AB12">
-        <f ca="1"/>
-        <v>21</v>
-      </c>
-      <c r="AC12">
-        <f ca="1"/>
-        <v>21</v>
-      </c>
-      <c r="AD12">
-        <f ca="1"/>
-        <v>26</v>
-      </c>
-      <c r="AE12">
-        <f ca="1"/>
-        <v>26</v>
-      </c>
-      <c r="AF12">
-        <f ca="1"/>
-        <v>11</v>
-      </c>
-      <c r="AG12">
-        <f ca="1"/>
-        <v>11</v>
-      </c>
-      <c r="AH12">
-        <f ca="1"/>
-        <v>27</v>
-      </c>
-      <c r="AI12">
-        <f ca="1"/>
-        <v>27</v>
-      </c>
-      <c r="AJ12">
-        <f ca="1"/>
-        <v>34</v>
-      </c>
-      <c r="AK12">
-        <f ca="1"/>
-        <v>34</v>
-      </c>
-      <c r="AL12">
-        <f ca="1"/>
-        <v>34</v>
-      </c>
-      <c r="AM12">
-        <f ca="1"/>
-        <v>32</v>
-      </c>
-      <c r="AN12">
-        <f ca="1"/>
-        <v>32</v>
-      </c>
-      <c r="AO12">
-        <f ca="1"/>
-        <v>34</v>
-      </c>
-      <c r="AP12">
-        <f ca="1"/>
-        <v>34</v>
-      </c>
-      <c r="AQ12">
-        <f ca="1"/>
-        <v>39</v>
-      </c>
-      <c r="AR12">
-        <f ca="1"/>
-        <v>39</v>
-      </c>
-      <c r="AS12">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="AT12">
-        <f ca="1"/>
-        <v>0</v>
+      <c r="G12" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="H12" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="I12" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="J12" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="K12" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="L12" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="M12" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="N12" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="O12" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="P12" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="Q12" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="R12" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="S12" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="T12" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="U12" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="V12" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="W12" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="X12" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="Y12" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="Z12" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AA12" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="AB12" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="AC12" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AD12" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AE12" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AF12" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="AG12" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AH12" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AI12" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="AJ12" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AK12" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AL12" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AM12" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="AN12" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AO12" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AP12" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="AQ12" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AR12" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AS12" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AT12" t="str">
+        <f ca="1"/>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.25">
@@ -2079,167 +1285,167 @@
       </c>
       <c r="D13">
         <f ca="1"/>
-        <v>16</v>
-      </c>
-      <c r="G13">
-        <f ca="1"/>
-        <v>4</v>
-      </c>
-      <c r="H13">
-        <f ca="1"/>
-        <v>4</v>
-      </c>
-      <c r="I13">
-        <f ca="1"/>
-        <v>2</v>
-      </c>
-      <c r="J13">
-        <f ca="1"/>
-        <v>2</v>
-      </c>
-      <c r="K13">
-        <f ca="1"/>
-        <v>4</v>
-      </c>
-      <c r="L13">
-        <f ca="1"/>
-        <v>4</v>
-      </c>
-      <c r="M13">
-        <f ca="1"/>
-        <v>11</v>
-      </c>
-      <c r="N13">
-        <f ca="1"/>
-        <v>11</v>
-      </c>
-      <c r="O13">
-        <f ca="1"/>
-        <v>11</v>
-      </c>
-      <c r="P13">
-        <f ca="1"/>
-        <v>9</v>
-      </c>
-      <c r="Q13">
-        <f ca="1"/>
-        <v>9</v>
-      </c>
-      <c r="R13">
-        <f ca="1"/>
-        <v>26</v>
-      </c>
-      <c r="S13">
-        <f ca="1"/>
-        <v>26</v>
-      </c>
-      <c r="T13">
-        <f ca="1"/>
-        <v>16</v>
-      </c>
-      <c r="U13">
-        <f ca="1"/>
-        <v>16</v>
-      </c>
-      <c r="V13">
-        <f ca="1"/>
-        <v>16</v>
-      </c>
-      <c r="W13">
-        <f ca="1"/>
-        <v>16</v>
-      </c>
-      <c r="X13">
-        <f ca="1"/>
-        <v>21</v>
-      </c>
-      <c r="Y13">
-        <f ca="1"/>
-        <v>21</v>
-      </c>
-      <c r="Z13">
-        <f ca="1"/>
-        <v>20</v>
-      </c>
-      <c r="AA13">
-        <f ca="1"/>
-        <v>20</v>
-      </c>
-      <c r="AB13">
-        <f ca="1"/>
-        <v>26</v>
-      </c>
-      <c r="AC13">
-        <f ca="1"/>
-        <v>26</v>
-      </c>
-      <c r="AD13">
-        <f ca="1"/>
-        <v>26</v>
-      </c>
-      <c r="AE13">
-        <f ca="1"/>
-        <v>24</v>
-      </c>
-      <c r="AF13">
-        <f ca="1"/>
-        <v>24</v>
-      </c>
-      <c r="AG13">
-        <f ca="1"/>
-        <v>29</v>
-      </c>
-      <c r="AH13">
-        <f ca="1"/>
-        <v>29</v>
-      </c>
-      <c r="AI13">
-        <f ca="1"/>
-        <v>21</v>
-      </c>
-      <c r="AJ13">
-        <f ca="1"/>
-        <v>21</v>
-      </c>
-      <c r="AK13">
-        <f ca="1"/>
-        <v>33</v>
-      </c>
-      <c r="AL13">
-        <f ca="1"/>
-        <v>33</v>
-      </c>
-      <c r="AM13">
-        <f ca="1"/>
-        <v>36</v>
-      </c>
-      <c r="AN13">
-        <f ca="1"/>
-        <v>36</v>
-      </c>
-      <c r="AO13">
-        <f ca="1"/>
-        <v>34</v>
-      </c>
-      <c r="AP13">
-        <f ca="1"/>
-        <v>34</v>
-      </c>
-      <c r="AQ13">
-        <f ca="1"/>
-        <v>15</v>
-      </c>
-      <c r="AR13">
-        <f ca="1"/>
-        <v>15</v>
-      </c>
-      <c r="AS13">
-        <f ca="1"/>
-        <v>-1</v>
-      </c>
-      <c r="AT13">
-        <f ca="1"/>
-        <v>-1</v>
+        <v>12</v>
+      </c>
+      <c r="G13" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="H13" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="I13" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="J13" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="K13" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="L13" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="M13" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="N13" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="O13" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="P13" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="Q13" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="R13" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="S13" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="T13" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="U13" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="V13" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="W13" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="X13" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="Y13" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="Z13" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AA13" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="AB13" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AC13" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="AD13" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AE13" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AF13" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="AG13" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="AH13" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="AI13" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="AJ13" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AK13" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AL13" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="AM13" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AN13" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AO13" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AP13" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="AQ13" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AR13" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="AS13" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="AT13" t="str">
+        <f ca="1"/>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.25">
@@ -2258,165 +1464,165 @@
         <f ca="1"/>
         <v>16</v>
       </c>
-      <c r="G14">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <f ca="1"/>
-        <v>6</v>
-      </c>
-      <c r="J14">
-        <f ca="1"/>
-        <v>6</v>
-      </c>
-      <c r="K14">
-        <f ca="1"/>
-        <v>6</v>
-      </c>
-      <c r="L14">
-        <f ca="1"/>
-        <v>31</v>
-      </c>
-      <c r="M14">
-        <f ca="1"/>
-        <v>31</v>
-      </c>
-      <c r="N14">
-        <f ca="1"/>
-        <v>38</v>
-      </c>
-      <c r="O14">
-        <f ca="1"/>
-        <v>38</v>
-      </c>
-      <c r="P14">
-        <f ca="1"/>
-        <v>9</v>
-      </c>
-      <c r="Q14">
-        <f ca="1"/>
-        <v>9</v>
-      </c>
-      <c r="R14">
-        <f ca="1"/>
-        <v>12</v>
-      </c>
-      <c r="S14">
-        <f ca="1"/>
-        <v>12</v>
-      </c>
-      <c r="T14">
-        <f ca="1"/>
-        <v>16</v>
-      </c>
-      <c r="U14">
-        <f ca="1"/>
-        <v>16</v>
-      </c>
-      <c r="V14">
-        <f ca="1"/>
-        <v>12</v>
-      </c>
-      <c r="W14">
-        <f ca="1"/>
-        <v>12</v>
-      </c>
-      <c r="X14">
-        <f ca="1"/>
-        <v>21</v>
-      </c>
-      <c r="Y14">
-        <f ca="1"/>
-        <v>21</v>
-      </c>
-      <c r="Z14">
-        <f ca="1"/>
-        <v>21</v>
-      </c>
-      <c r="AA14">
-        <f ca="1"/>
-        <v>23</v>
-      </c>
-      <c r="AB14">
-        <f ca="1"/>
-        <v>23</v>
-      </c>
-      <c r="AC14">
-        <f ca="1"/>
-        <v>3</v>
-      </c>
-      <c r="AD14">
-        <f ca="1"/>
-        <v>3</v>
-      </c>
-      <c r="AE14">
-        <f ca="1"/>
-        <v>26</v>
-      </c>
-      <c r="AF14">
-        <f ca="1"/>
-        <v>26</v>
-      </c>
-      <c r="AG14">
-        <f ca="1"/>
-        <v>27</v>
-      </c>
-      <c r="AH14">
-        <f ca="1"/>
-        <v>27</v>
-      </c>
-      <c r="AI14">
-        <f ca="1"/>
-        <v>27</v>
-      </c>
-      <c r="AJ14">
-        <f ca="1"/>
-        <v>32</v>
-      </c>
-      <c r="AK14">
-        <f ca="1"/>
-        <v>32</v>
-      </c>
-      <c r="AL14">
-        <f ca="1"/>
-        <v>22</v>
-      </c>
-      <c r="AM14">
-        <f ca="1"/>
-        <v>22</v>
-      </c>
-      <c r="AN14">
-        <f ca="1"/>
-        <v>36</v>
-      </c>
-      <c r="AO14">
-        <f ca="1"/>
-        <v>36</v>
-      </c>
-      <c r="AP14">
-        <f ca="1"/>
-        <v>38</v>
-      </c>
-      <c r="AQ14">
-        <f ca="1"/>
-        <v>38</v>
-      </c>
-      <c r="AR14">
-        <f ca="1"/>
-        <v>37</v>
-      </c>
-      <c r="AS14">
-        <f ca="1"/>
-        <v>37</v>
-      </c>
-      <c r="AT14">
-        <f ca="1"/>
-        <v>-1</v>
+      <c r="G14" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="H14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="I14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="J14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="K14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="L14" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="M14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="N14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="O14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="P14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="Q14" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="R14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="S14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="T14" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="U14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="V14" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="W14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="X14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="Y14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="Z14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AA14" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="AB14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AC14" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="AD14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AE14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AF14" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="AG14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AH14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AI14" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="AJ14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AK14" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="AL14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AM14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AN14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AO14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AP14" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="AQ14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AR14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AS14" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="AT14" t="str">
+        <f ca="1"/>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.25">
@@ -2435,165 +1641,165 @@
         <f ca="1"/>
         <v>16</v>
       </c>
-      <c r="G15">
-        <f ca="1"/>
-        <v>-1</v>
-      </c>
-      <c r="H15">
-        <f ca="1"/>
-        <v>-1</v>
-      </c>
-      <c r="I15">
-        <f ca="1"/>
-        <v>19</v>
-      </c>
-      <c r="J15">
-        <f ca="1"/>
-        <v>19</v>
-      </c>
-      <c r="K15">
-        <f ca="1"/>
-        <v>4</v>
-      </c>
-      <c r="L15">
-        <f ca="1"/>
-        <v>4</v>
-      </c>
-      <c r="M15">
-        <f ca="1"/>
-        <v>4</v>
-      </c>
-      <c r="N15">
-        <f ca="1"/>
-        <v>11</v>
-      </c>
-      <c r="O15">
-        <f ca="1"/>
-        <v>11</v>
-      </c>
-      <c r="P15">
-        <f ca="1"/>
-        <v>11</v>
-      </c>
-      <c r="Q15">
-        <f ca="1"/>
-        <v>37</v>
-      </c>
-      <c r="R15">
-        <f ca="1"/>
-        <v>37</v>
-      </c>
-      <c r="S15">
-        <f ca="1"/>
-        <v>12</v>
-      </c>
-      <c r="T15">
-        <f ca="1"/>
-        <v>12</v>
-      </c>
-      <c r="U15">
-        <f ca="1"/>
-        <v>14</v>
-      </c>
-      <c r="V15">
-        <f ca="1"/>
-        <v>14</v>
-      </c>
-      <c r="W15">
-        <f ca="1"/>
-        <v>21</v>
-      </c>
-      <c r="X15">
-        <f ca="1"/>
-        <v>21</v>
-      </c>
-      <c r="Y15">
-        <f ca="1"/>
-        <v>21</v>
-      </c>
-      <c r="Z15">
-        <f ca="1"/>
-        <v>21</v>
-      </c>
-      <c r="AA15">
-        <f ca="1"/>
-        <v>23</v>
-      </c>
-      <c r="AB15">
-        <f ca="1"/>
-        <v>23</v>
-      </c>
-      <c r="AC15">
-        <f ca="1"/>
-        <v>18</v>
-      </c>
-      <c r="AD15">
-        <f ca="1"/>
-        <v>18</v>
-      </c>
-      <c r="AE15">
-        <f ca="1"/>
-        <v>24</v>
-      </c>
-      <c r="AF15">
-        <f ca="1"/>
-        <v>24</v>
-      </c>
-      <c r="AG15">
-        <f ca="1"/>
-        <v>29</v>
-      </c>
-      <c r="AH15">
-        <f ca="1"/>
-        <v>29</v>
-      </c>
-      <c r="AI15">
-        <f ca="1"/>
-        <v>31</v>
-      </c>
-      <c r="AJ15">
-        <f ca="1"/>
-        <v>31</v>
-      </c>
-      <c r="AK15">
-        <f ca="1"/>
-        <v>39</v>
-      </c>
-      <c r="AL15">
-        <f ca="1"/>
-        <v>39</v>
-      </c>
-      <c r="AM15">
-        <f ca="1"/>
-        <v>36</v>
-      </c>
-      <c r="AN15">
-        <f ca="1"/>
-        <v>36</v>
-      </c>
-      <c r="AO15">
-        <f ca="1"/>
-        <v>36</v>
-      </c>
-      <c r="AP15">
-        <f ca="1"/>
-        <v>39</v>
-      </c>
-      <c r="AQ15">
-        <f ca="1"/>
-        <v>39</v>
-      </c>
-      <c r="AR15">
-        <f ca="1"/>
-        <v>37</v>
-      </c>
-      <c r="AS15">
-        <f ca="1"/>
-        <v>37</v>
-      </c>
-      <c r="AT15">
-        <f ca="1"/>
-        <v>-1</v>
+      <c r="G15" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="H15" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="J15" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="K15" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="L15" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="M15" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="N15" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="O15" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="P15" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="Q15" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="R15" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="S15" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="T15" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="U15" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="V15" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="W15" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="X15" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="Y15" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="Z15" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AA15" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="AB15" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AC15" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AD15" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="AE15" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AF15" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="AG15" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AH15" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AI15" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="AJ15" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AK15" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="AL15" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="AM15" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="AN15" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="AO15" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AP15" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="AQ15" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="AR15" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="AS15" t="str">
+        <f ca="1"/>
+        <v>#</v>
+      </c>
+      <c r="AT15" t="str">
+        <f ca="1"/>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.25">
@@ -2612,168 +1818,8 @@
         <f ca="1"/>
         <v>16</v>
       </c>
-      <c r="G16">
-        <f ca="1"/>
-        <v>-1</v>
-      </c>
-      <c r="H16">
-        <f ca="1"/>
-        <v>12</v>
-      </c>
-      <c r="I16">
-        <f ca="1"/>
-        <v>12</v>
-      </c>
-      <c r="J16">
-        <f ca="1"/>
-        <v>6</v>
-      </c>
-      <c r="K16">
-        <f ca="1"/>
-        <v>6</v>
-      </c>
-      <c r="L16">
-        <f ca="1"/>
-        <v>6</v>
-      </c>
-      <c r="M16">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="N16">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="O16">
-        <f ca="1"/>
-        <v>12</v>
-      </c>
-      <c r="P16">
-        <f ca="1"/>
-        <v>12</v>
-      </c>
-      <c r="Q16">
-        <f ca="1"/>
-        <v>12</v>
-      </c>
-      <c r="R16">
-        <f ca="1"/>
-        <v>12</v>
-      </c>
-      <c r="S16">
-        <f ca="1"/>
-        <v>12</v>
-      </c>
-      <c r="T16">
-        <f ca="1"/>
-        <v>12</v>
-      </c>
-      <c r="U16">
-        <f ca="1"/>
-        <v>14</v>
-      </c>
-      <c r="V16">
-        <f ca="1"/>
-        <v>14</v>
-      </c>
-      <c r="W16">
-        <f ca="1"/>
-        <v>14</v>
-      </c>
-      <c r="X16">
-        <f ca="1"/>
-        <v>14</v>
-      </c>
-      <c r="Y16">
-        <f ca="1"/>
-        <v>21</v>
-      </c>
-      <c r="Z16">
-        <f ca="1"/>
-        <v>21</v>
-      </c>
-      <c r="AA16">
-        <f ca="1"/>
-        <v>24</v>
-      </c>
-      <c r="AB16">
-        <f ca="1"/>
-        <v>24</v>
-      </c>
-      <c r="AC16">
-        <f ca="1"/>
-        <v>22</v>
-      </c>
-      <c r="AD16">
-        <f ca="1"/>
-        <v>22</v>
-      </c>
-      <c r="AE16">
-        <f ca="1"/>
-        <v>24</v>
-      </c>
-      <c r="AF16">
-        <f ca="1"/>
-        <v>24</v>
-      </c>
-      <c r="AG16">
-        <f ca="1"/>
-        <v>29</v>
-      </c>
-      <c r="AH16">
-        <f ca="1"/>
-        <v>29</v>
-      </c>
-      <c r="AI16">
-        <f ca="1"/>
-        <v>31</v>
-      </c>
-      <c r="AJ16">
-        <f ca="1"/>
-        <v>31</v>
-      </c>
-      <c r="AK16">
-        <f ca="1"/>
-        <v>31</v>
-      </c>
-      <c r="AL16">
-        <f ca="1"/>
-        <v>32</v>
-      </c>
-      <c r="AM16">
-        <f ca="1"/>
-        <v>32</v>
-      </c>
-      <c r="AN16">
-        <f ca="1"/>
-        <v>37</v>
-      </c>
-      <c r="AO16">
-        <f ca="1"/>
-        <v>37</v>
-      </c>
-      <c r="AP16">
-        <f ca="1"/>
-        <v>37</v>
-      </c>
-      <c r="AQ16">
-        <f ca="1"/>
-        <v>37</v>
-      </c>
-      <c r="AR16">
-        <f ca="1"/>
-        <v>37</v>
-      </c>
-      <c r="AS16">
-        <f ca="1"/>
-        <v>37</v>
-      </c>
-      <c r="AT16">
-        <f ca="1"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -2790,7 +1836,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -2804,131 +1850,10 @@
       </c>
       <c r="D18">
         <f ca="1"/>
-        <v>17</v>
-      </c>
-      <c r="G18" cm="1">
-        <f t="array" ref="G18:AT23">_xlfn.VSTACK(_xlfn.SEQUENCE(1,40),_xlfn.SEQUENCE(1,40),_xlfn.SEQUENCE(1,40),_xlfn.SEQUENCE(1,40),_xlfn.SEQUENCE(1,40),_xlfn.SEQUENCE(1,40))</f>
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>2</v>
-      </c>
-      <c r="I18">
-        <v>3</v>
-      </c>
-      <c r="J18">
-        <v>4</v>
-      </c>
-      <c r="K18">
-        <v>5</v>
-      </c>
-      <c r="L18">
-        <v>6</v>
-      </c>
-      <c r="M18">
-        <v>7</v>
-      </c>
-      <c r="N18">
-        <v>8</v>
-      </c>
-      <c r="O18">
-        <v>9</v>
-      </c>
-      <c r="P18">
-        <v>10</v>
-      </c>
-      <c r="Q18">
-        <v>11</v>
-      </c>
-      <c r="R18">
-        <v>12</v>
-      </c>
-      <c r="S18">
-        <v>13</v>
-      </c>
-      <c r="T18">
-        <v>14</v>
-      </c>
-      <c r="U18">
-        <v>15</v>
-      </c>
-      <c r="V18">
         <v>16</v>
       </c>
-      <c r="W18">
-        <v>17</v>
-      </c>
-      <c r="X18">
-        <v>18</v>
-      </c>
-      <c r="Y18">
-        <v>19</v>
-      </c>
-      <c r="Z18">
-        <v>20</v>
-      </c>
-      <c r="AA18">
-        <v>21</v>
-      </c>
-      <c r="AB18">
-        <v>22</v>
-      </c>
-      <c r="AC18">
-        <v>23</v>
-      </c>
-      <c r="AD18">
-        <v>24</v>
-      </c>
-      <c r="AE18">
-        <v>25</v>
-      </c>
-      <c r="AF18">
-        <v>26</v>
-      </c>
-      <c r="AG18">
-        <v>27</v>
-      </c>
-      <c r="AH18">
-        <v>28</v>
-      </c>
-      <c r="AI18">
-        <v>29</v>
-      </c>
-      <c r="AJ18">
-        <v>30</v>
-      </c>
-      <c r="AK18">
-        <v>31</v>
-      </c>
-      <c r="AL18">
-        <v>32</v>
-      </c>
-      <c r="AM18">
-        <v>33</v>
-      </c>
-      <c r="AN18">
-        <v>34</v>
-      </c>
-      <c r="AO18">
-        <v>35</v>
-      </c>
-      <c r="AP18">
-        <v>36</v>
-      </c>
-      <c r="AQ18">
-        <v>37</v>
-      </c>
-      <c r="AR18">
-        <v>38</v>
-      </c>
-      <c r="AS18">
-        <v>39</v>
-      </c>
-      <c r="AT18">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -2944,128 +1869,8 @@
         <f ca="1"/>
         <v>17</v>
       </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>2</v>
-      </c>
-      <c r="I19">
-        <v>3</v>
-      </c>
-      <c r="J19">
-        <v>4</v>
-      </c>
-      <c r="K19">
-        <v>5</v>
-      </c>
-      <c r="L19">
-        <v>6</v>
-      </c>
-      <c r="M19">
-        <v>7</v>
-      </c>
-      <c r="N19">
-        <v>8</v>
-      </c>
-      <c r="O19">
-        <v>9</v>
-      </c>
-      <c r="P19">
-        <v>10</v>
-      </c>
-      <c r="Q19">
-        <v>11</v>
-      </c>
-      <c r="R19">
-        <v>12</v>
-      </c>
-      <c r="S19">
-        <v>13</v>
-      </c>
-      <c r="T19">
-        <v>14</v>
-      </c>
-      <c r="U19">
-        <v>15</v>
-      </c>
-      <c r="V19">
-        <v>16</v>
-      </c>
-      <c r="W19">
-        <v>17</v>
-      </c>
-      <c r="X19">
-        <v>18</v>
-      </c>
-      <c r="Y19">
-        <v>19</v>
-      </c>
-      <c r="Z19">
-        <v>20</v>
-      </c>
-      <c r="AA19">
-        <v>21</v>
-      </c>
-      <c r="AB19">
-        <v>22</v>
-      </c>
-      <c r="AC19">
-        <v>23</v>
-      </c>
-      <c r="AD19">
-        <v>24</v>
-      </c>
-      <c r="AE19">
-        <v>25</v>
-      </c>
-      <c r="AF19">
-        <v>26</v>
-      </c>
-      <c r="AG19">
-        <v>27</v>
-      </c>
-      <c r="AH19">
-        <v>28</v>
-      </c>
-      <c r="AI19">
-        <v>29</v>
-      </c>
-      <c r="AJ19">
-        <v>30</v>
-      </c>
-      <c r="AK19">
-        <v>31</v>
-      </c>
-      <c r="AL19">
-        <v>32</v>
-      </c>
-      <c r="AM19">
-        <v>33</v>
-      </c>
-      <c r="AN19">
-        <v>34</v>
-      </c>
-      <c r="AO19">
-        <v>35</v>
-      </c>
-      <c r="AP19">
-        <v>36</v>
-      </c>
-      <c r="AQ19">
-        <v>37</v>
-      </c>
-      <c r="AR19">
-        <v>38</v>
-      </c>
-      <c r="AS19">
-        <v>39</v>
-      </c>
-      <c r="AT19">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -3079,130 +1884,10 @@
       </c>
       <c r="D20">
         <f ca="1"/>
-        <v>19</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>2</v>
-      </c>
-      <c r="I20">
-        <v>3</v>
-      </c>
-      <c r="J20">
-        <v>4</v>
-      </c>
-      <c r="K20">
-        <v>5</v>
-      </c>
-      <c r="L20">
-        <v>6</v>
-      </c>
-      <c r="M20">
-        <v>7</v>
-      </c>
-      <c r="N20">
-        <v>8</v>
-      </c>
-      <c r="O20">
-        <v>9</v>
-      </c>
-      <c r="P20">
-        <v>10</v>
-      </c>
-      <c r="Q20">
-        <v>11</v>
-      </c>
-      <c r="R20">
-        <v>12</v>
-      </c>
-      <c r="S20">
-        <v>13</v>
-      </c>
-      <c r="T20">
-        <v>14</v>
-      </c>
-      <c r="U20">
-        <v>15</v>
-      </c>
-      <c r="V20">
-        <v>16</v>
-      </c>
-      <c r="W20">
         <v>17</v>
       </c>
-      <c r="X20">
-        <v>18</v>
-      </c>
-      <c r="Y20">
-        <v>19</v>
-      </c>
-      <c r="Z20">
-        <v>20</v>
-      </c>
-      <c r="AA20">
-        <v>21</v>
-      </c>
-      <c r="AB20">
-        <v>22</v>
-      </c>
-      <c r="AC20">
-        <v>23</v>
-      </c>
-      <c r="AD20">
-        <v>24</v>
-      </c>
-      <c r="AE20">
-        <v>25</v>
-      </c>
-      <c r="AF20">
-        <v>26</v>
-      </c>
-      <c r="AG20">
-        <v>27</v>
-      </c>
-      <c r="AH20">
-        <v>28</v>
-      </c>
-      <c r="AI20">
-        <v>29</v>
-      </c>
-      <c r="AJ20">
-        <v>30</v>
-      </c>
-      <c r="AK20">
-        <v>31</v>
-      </c>
-      <c r="AL20">
-        <v>32</v>
-      </c>
-      <c r="AM20">
-        <v>33</v>
-      </c>
-      <c r="AN20">
-        <v>34</v>
-      </c>
-      <c r="AO20">
-        <v>35</v>
-      </c>
-      <c r="AP20">
-        <v>36</v>
-      </c>
-      <c r="AQ20">
-        <v>37</v>
-      </c>
-      <c r="AR20">
-        <v>38</v>
-      </c>
-      <c r="AS20">
-        <v>39</v>
-      </c>
-      <c r="AT20">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -3218,128 +1903,8 @@
         <f ca="1"/>
         <v>19</v>
       </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="I21">
-        <v>3</v>
-      </c>
-      <c r="J21">
-        <v>4</v>
-      </c>
-      <c r="K21">
-        <v>5</v>
-      </c>
-      <c r="L21">
-        <v>6</v>
-      </c>
-      <c r="M21">
-        <v>7</v>
-      </c>
-      <c r="N21">
-        <v>8</v>
-      </c>
-      <c r="O21">
-        <v>9</v>
-      </c>
-      <c r="P21">
-        <v>10</v>
-      </c>
-      <c r="Q21">
-        <v>11</v>
-      </c>
-      <c r="R21">
-        <v>12</v>
-      </c>
-      <c r="S21">
-        <v>13</v>
-      </c>
-      <c r="T21">
-        <v>14</v>
-      </c>
-      <c r="U21">
-        <v>15</v>
-      </c>
-      <c r="V21">
-        <v>16</v>
-      </c>
-      <c r="W21">
-        <v>17</v>
-      </c>
-      <c r="X21">
-        <v>18</v>
-      </c>
-      <c r="Y21">
-        <v>19</v>
-      </c>
-      <c r="Z21">
-        <v>20</v>
-      </c>
-      <c r="AA21">
-        <v>21</v>
-      </c>
-      <c r="AB21">
-        <v>22</v>
-      </c>
-      <c r="AC21">
-        <v>23</v>
-      </c>
-      <c r="AD21">
-        <v>24</v>
-      </c>
-      <c r="AE21">
-        <v>25</v>
-      </c>
-      <c r="AF21">
-        <v>26</v>
-      </c>
-      <c r="AG21">
-        <v>27</v>
-      </c>
-      <c r="AH21">
-        <v>28</v>
-      </c>
-      <c r="AI21">
-        <v>29</v>
-      </c>
-      <c r="AJ21">
-        <v>30</v>
-      </c>
-      <c r="AK21">
-        <v>31</v>
-      </c>
-      <c r="AL21">
-        <v>32</v>
-      </c>
-      <c r="AM21">
-        <v>33</v>
-      </c>
-      <c r="AN21">
-        <v>34</v>
-      </c>
-      <c r="AO21">
-        <v>35</v>
-      </c>
-      <c r="AP21">
-        <v>36</v>
-      </c>
-      <c r="AQ21">
-        <v>37</v>
-      </c>
-      <c r="AR21">
-        <v>38</v>
-      </c>
-      <c r="AS21">
-        <v>39</v>
-      </c>
-      <c r="AT21">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -3353,130 +1918,10 @@
       </c>
       <c r="D22">
         <f ca="1"/>
-        <v>24</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>2</v>
-      </c>
-      <c r="I22">
-        <v>3</v>
-      </c>
-      <c r="J22">
-        <v>4</v>
-      </c>
-      <c r="K22">
-        <v>5</v>
-      </c>
-      <c r="L22">
-        <v>6</v>
-      </c>
-      <c r="M22">
-        <v>7</v>
-      </c>
-      <c r="N22">
-        <v>8</v>
-      </c>
-      <c r="O22">
-        <v>9</v>
-      </c>
-      <c r="P22">
-        <v>10</v>
-      </c>
-      <c r="Q22">
-        <v>11</v>
-      </c>
-      <c r="R22">
-        <v>12</v>
-      </c>
-      <c r="S22">
-        <v>13</v>
-      </c>
-      <c r="T22">
-        <v>14</v>
-      </c>
-      <c r="U22">
-        <v>15</v>
-      </c>
-      <c r="V22">
-        <v>16</v>
-      </c>
-      <c r="W22">
-        <v>17</v>
-      </c>
-      <c r="X22">
-        <v>18</v>
-      </c>
-      <c r="Y22">
         <v>19</v>
       </c>
-      <c r="Z22">
-        <v>20</v>
-      </c>
-      <c r="AA22">
-        <v>21</v>
-      </c>
-      <c r="AB22">
-        <v>22</v>
-      </c>
-      <c r="AC22">
-        <v>23</v>
-      </c>
-      <c r="AD22">
-        <v>24</v>
-      </c>
-      <c r="AE22">
-        <v>25</v>
-      </c>
-      <c r="AF22">
-        <v>26</v>
-      </c>
-      <c r="AG22">
-        <v>27</v>
-      </c>
-      <c r="AH22">
-        <v>28</v>
-      </c>
-      <c r="AI22">
-        <v>29</v>
-      </c>
-      <c r="AJ22">
-        <v>30</v>
-      </c>
-      <c r="AK22">
-        <v>31</v>
-      </c>
-      <c r="AL22">
-        <v>32</v>
-      </c>
-      <c r="AM22">
-        <v>33</v>
-      </c>
-      <c r="AN22">
-        <v>34</v>
-      </c>
-      <c r="AO22">
-        <v>35</v>
-      </c>
-      <c r="AP22">
-        <v>36</v>
-      </c>
-      <c r="AQ22">
-        <v>37</v>
-      </c>
-      <c r="AR22">
-        <v>38</v>
-      </c>
-      <c r="AS22">
-        <v>39</v>
-      </c>
-      <c r="AT22">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -3492,128 +1937,8 @@
         <f ca="1"/>
         <v>24</v>
       </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>2</v>
-      </c>
-      <c r="I23">
-        <v>3</v>
-      </c>
-      <c r="J23">
-        <v>4</v>
-      </c>
-      <c r="K23">
-        <v>5</v>
-      </c>
-      <c r="L23">
-        <v>6</v>
-      </c>
-      <c r="M23">
-        <v>7</v>
-      </c>
-      <c r="N23">
-        <v>8</v>
-      </c>
-      <c r="O23">
-        <v>9</v>
-      </c>
-      <c r="P23">
-        <v>10</v>
-      </c>
-      <c r="Q23">
-        <v>11</v>
-      </c>
-      <c r="R23">
-        <v>12</v>
-      </c>
-      <c r="S23">
-        <v>13</v>
-      </c>
-      <c r="T23">
-        <v>14</v>
-      </c>
-      <c r="U23">
-        <v>15</v>
-      </c>
-      <c r="V23">
-        <v>16</v>
-      </c>
-      <c r="W23">
-        <v>17</v>
-      </c>
-      <c r="X23">
-        <v>18</v>
-      </c>
-      <c r="Y23">
-        <v>19</v>
-      </c>
-      <c r="Z23">
-        <v>20</v>
-      </c>
-      <c r="AA23">
-        <v>21</v>
-      </c>
-      <c r="AB23">
-        <v>22</v>
-      </c>
-      <c r="AC23">
-        <v>23</v>
-      </c>
-      <c r="AD23">
-        <v>24</v>
-      </c>
-      <c r="AE23">
-        <v>25</v>
-      </c>
-      <c r="AF23">
-        <v>26</v>
-      </c>
-      <c r="AG23">
-        <v>27</v>
-      </c>
-      <c r="AH23">
-        <v>28</v>
-      </c>
-      <c r="AI23">
-        <v>29</v>
-      </c>
-      <c r="AJ23">
-        <v>30</v>
-      </c>
-      <c r="AK23">
-        <v>31</v>
-      </c>
-      <c r="AL23">
-        <v>32</v>
-      </c>
-      <c r="AM23">
-        <v>33</v>
-      </c>
-      <c r="AN23">
-        <v>34</v>
-      </c>
-      <c r="AO23">
-        <v>35</v>
-      </c>
-      <c r="AP23">
-        <v>36</v>
-      </c>
-      <c r="AQ23">
-        <v>37</v>
-      </c>
-      <c r="AR23">
-        <v>38</v>
-      </c>
-      <c r="AS23">
-        <v>39</v>
-      </c>
-      <c r="AT23">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -3627,10 +1952,10 @@
       </c>
       <c r="D24">
         <f ca="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -3646,168 +1971,8 @@
         <f ca="1"/>
         <v>40</v>
       </c>
-      <c r="G25" t="str" cm="1">
-        <f t="array" aca="1" ref="G25:AT30" ca="1">_xlfn.MAP(_xlfn.ANCHORARRAY(G11),_xlfn.ANCHORARRAY(G18),_xlfn.LAMBDA(_xlpm.c,_xlpm.d,_xlfn.LET(_xlpm.a,_xlpm.c,_xlpm.b,_xlpm.d,IF(OR(_xlpm.b+1=_xlpm.a,_xlpm.b-1=_xlpm.a,_xlpm.a=_xlpm.b),"#",""))))</f>
-        <v>#</v>
-      </c>
-      <c r="H25" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="I25" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="J25" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="K25" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="L25" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="M25" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="N25" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="O25" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="P25" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="Q25" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="R25" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="S25" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="T25" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="U25" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="V25" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="W25" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="X25" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="Y25" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="Z25" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AA25" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AB25" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AC25" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AD25" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AE25" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AF25" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AG25" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AH25" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AI25" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AJ25" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AK25" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AL25" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AM25" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AN25" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AO25" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AP25" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AQ25" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AR25" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AS25" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AT25" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -3821,170 +1986,10 @@
       </c>
       <c r="D26">
         <f ca="1"/>
-        <v>26</v>
-      </c>
-      <c r="G26" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="H26" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="I26" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="J26" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="K26" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="L26" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="M26" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="N26" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="O26" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="P26" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="Q26" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="R26" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="S26" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="T26" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="U26" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="V26" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="W26" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="X26" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="Y26" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="Z26" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AA26" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AB26" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AC26" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AD26" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AE26" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AF26" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AG26" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AH26" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AI26" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AJ26" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AK26" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AL26" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AM26" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AN26" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AO26" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AP26" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AQ26" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AR26" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AS26" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AT26" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -4000,168 +2005,8 @@
         <f ca="1"/>
         <v>26</v>
       </c>
-      <c r="G27" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="H27" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="I27" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="J27" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="K27" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="L27" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="M27" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="N27" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="O27" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="P27" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="Q27" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="R27" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="S27" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="T27" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="U27" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="V27" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="W27" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="X27" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="Y27" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="Z27" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AA27" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AB27" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AC27" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AD27" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AE27" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AF27" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AG27" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AH27" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AI27" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AJ27" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AK27" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AL27" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AM27" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AN27" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AO27" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AP27" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AQ27" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AR27" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AS27" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AT27" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -4175,170 +2020,10 @@
       </c>
       <c r="D28">
         <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="G28" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="H28" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="I28" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="J28" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="K28" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="L28" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="M28" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="N28" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="O28" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="P28" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="Q28" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="R28" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="S28" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="T28" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="U28" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="V28" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="W28" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="X28" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="Y28" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="Z28" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AA28" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AB28" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AC28" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AD28" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AE28" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AF28" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AG28" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AH28" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AI28" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AJ28" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AK28" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AL28" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AM28" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AN28" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AO28" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AP28" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AQ28" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AR28" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AS28" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AT28" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -4354,168 +2039,8 @@
         <f ca="1"/>
         <v>1</v>
       </c>
-      <c r="G29" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="H29" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="I29" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="J29" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="K29" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="L29" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="M29" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="N29" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="O29" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="P29" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="Q29" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="R29" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="S29" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="T29" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="U29" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="V29" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="W29" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="X29" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="Y29" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="Z29" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AA29" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AB29" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AC29" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AD29" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AE29" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AF29" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AG29" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AH29" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AI29" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AJ29" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AK29" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AL29" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AM29" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AN29" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AO29" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AP29" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AQ29" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AR29" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AS29" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AT29" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -4529,170 +2054,10 @@
       </c>
       <c r="D30">
         <f ca="1"/>
-        <v>31</v>
-      </c>
-      <c r="G30" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="H30" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="I30" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="J30" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="K30" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="L30" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="M30" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="N30" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="O30" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="P30" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="Q30" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="R30" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="S30" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="T30" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="U30" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="V30" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="W30" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="X30" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="Y30" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="Z30" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AA30" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AB30" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AC30" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AD30" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AE30" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AF30" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AG30" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AH30" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AI30" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AJ30" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AK30" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AL30" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AM30" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AN30" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AO30" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AP30" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AQ30" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AR30" t="str">
-        <f ca="1"/>
-        <v>#</v>
-      </c>
-      <c r="AS30" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="AT30" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -4709,7 +2074,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -4723,7 +2088,7 @@
       </c>
       <c r="D32">
         <f ca="1"/>
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -4774,7 +2139,7 @@
       </c>
       <c r="D35">
         <f ca="1"/>
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -4825,7 +2190,7 @@
       </c>
       <c r="D38">
         <f ca="1"/>
-        <v>-1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -4910,7 +2275,7 @@
       </c>
       <c r="D43">
         <f ca="1"/>
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -4944,7 +2309,7 @@
       </c>
       <c r="D45">
         <f ca="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -5029,7 +2394,7 @@
       </c>
       <c r="D50">
         <f ca="1"/>
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -5063,7 +2428,7 @@
       </c>
       <c r="D52">
         <f ca="1"/>
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -5097,7 +2462,7 @@
       </c>
       <c r="D54">
         <f ca="1"/>
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -5131,7 +2496,7 @@
       </c>
       <c r="D56">
         <f ca="1"/>
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -5165,7 +2530,7 @@
       </c>
       <c r="D58">
         <f ca="1"/>
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -5199,7 +2564,7 @@
       </c>
       <c r="D60">
         <f ca="1"/>
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -5233,7 +2598,7 @@
       </c>
       <c r="D62">
         <f ca="1"/>
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -5267,7 +2632,7 @@
       </c>
       <c r="D64">
         <f ca="1"/>
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -5301,7 +2666,7 @@
       </c>
       <c r="D66">
         <f ca="1"/>
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -5335,7 +2700,7 @@
       </c>
       <c r="D68">
         <f ca="1"/>
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -5369,7 +2734,7 @@
       </c>
       <c r="D70">
         <f ca="1"/>
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -5420,7 +2785,7 @@
       </c>
       <c r="D73">
         <f ca="1"/>
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -5454,7 +2819,7 @@
       </c>
       <c r="D75">
         <f ca="1"/>
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -5488,7 +2853,7 @@
       </c>
       <c r="D77">
         <f ca="1"/>
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -5522,7 +2887,7 @@
       </c>
       <c r="D79">
         <f ca="1"/>
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -5556,7 +2921,7 @@
       </c>
       <c r="D81">
         <f ca="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -5590,7 +2955,7 @@
       </c>
       <c r="D83">
         <f ca="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -5624,7 +2989,7 @@
       </c>
       <c r="D85">
         <f ca="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -5658,7 +3023,7 @@
       </c>
       <c r="D87">
         <f ca="1"/>
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -5709,7 +3074,7 @@
       </c>
       <c r="D90">
         <f ca="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -5743,7 +3108,7 @@
       </c>
       <c r="D92">
         <f ca="1"/>
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -5777,7 +3142,7 @@
       </c>
       <c r="D94">
         <f ca="1"/>
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -5845,7 +3210,7 @@
       </c>
       <c r="D98">
         <f ca="1"/>
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -5879,7 +3244,7 @@
       </c>
       <c r="D100">
         <f ca="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -5913,7 +3278,7 @@
       </c>
       <c r="D102">
         <f ca="1"/>
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -5964,7 +3329,7 @@
       </c>
       <c r="D105">
         <f ca="1"/>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -5998,7 +3363,7 @@
       </c>
       <c r="D107">
         <f ca="1"/>
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -6032,7 +3397,7 @@
       </c>
       <c r="D109">
         <f ca="1"/>
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -6066,7 +3431,7 @@
       </c>
       <c r="D111">
         <f ca="1"/>
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -6100,7 +3465,7 @@
       </c>
       <c r="D113">
         <f ca="1"/>
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -6134,7 +3499,7 @@
       </c>
       <c r="D115">
         <f ca="1"/>
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -6168,7 +3533,7 @@
       </c>
       <c r="D117">
         <f ca="1"/>
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -6202,7 +3567,7 @@
       </c>
       <c r="D119">
         <f ca="1"/>
-        <v>-1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -6236,7 +3601,7 @@
       </c>
       <c r="D121">
         <f ca="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -6270,7 +3635,7 @@
       </c>
       <c r="D123">
         <f ca="1"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -6321,7 +3686,7 @@
       </c>
       <c r="D126">
         <f ca="1"/>
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -6355,7 +3720,7 @@
       </c>
       <c r="D128">
         <f ca="1"/>
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -6389,7 +3754,7 @@
       </c>
       <c r="D130">
         <f ca="1"/>
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -6423,7 +3788,7 @@
       </c>
       <c r="D132">
         <f ca="1"/>
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -6457,7 +3822,7 @@
       </c>
       <c r="D134">
         <f ca="1"/>
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -6491,7 +3856,7 @@
       </c>
       <c r="D136">
         <f ca="1"/>
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -6525,7 +3890,7 @@
       </c>
       <c r="D138">
         <f ca="1"/>
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -6576,7 +3941,7 @@
       </c>
       <c r="D141">
         <f ca="1"/>
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -6599,7 +3964,7 @@
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D143">
         <f ca="1"/>
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -6611,7 +3976,7 @@
     <row r="145" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D145">
         <f ca="1"/>
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="4:4" x14ac:dyDescent="0.25">
@@ -6623,7 +3988,7 @@
     <row r="147" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D147">
         <f ca="1"/>
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="148" spans="4:4" x14ac:dyDescent="0.25">
@@ -6641,7 +4006,7 @@
     <row r="150" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D150">
         <f ca="1"/>
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="151" spans="4:4" x14ac:dyDescent="0.25">
@@ -6653,7 +4018,7 @@
     <row r="152" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D152">
         <f ca="1"/>
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="153" spans="4:4" x14ac:dyDescent="0.25">
@@ -6665,7 +4030,7 @@
     <row r="154" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D154">
         <f ca="1"/>
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="155" spans="4:4" x14ac:dyDescent="0.25">
@@ -6677,7 +4042,7 @@
     <row r="156" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D156">
         <f ca="1"/>
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="157" spans="4:4" x14ac:dyDescent="0.25">
@@ -6689,7 +4054,7 @@
     <row r="158" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D158">
         <f ca="1"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="159" spans="4:4" x14ac:dyDescent="0.25">
@@ -6701,7 +4066,7 @@
     <row r="160" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D160">
         <f ca="1"/>
-        <v>-1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="161" spans="4:4" x14ac:dyDescent="0.25">
@@ -6719,7 +4084,7 @@
     <row r="163" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D163">
         <f ca="1"/>
-        <v>19</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="4:4" x14ac:dyDescent="0.25">
@@ -6731,7 +4096,7 @@
     <row r="165" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D165">
         <f ca="1"/>
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="166" spans="4:4" x14ac:dyDescent="0.25">
@@ -6749,7 +4114,7 @@
     <row r="168" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D168">
         <f ca="1"/>
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169" spans="4:4" x14ac:dyDescent="0.25">
@@ -6767,7 +4132,7 @@
     <row r="171" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D171">
         <f ca="1"/>
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="172" spans="4:4" x14ac:dyDescent="0.25">
@@ -6779,7 +4144,7 @@
     <row r="173" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D173">
         <f ca="1"/>
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="174" spans="4:4" x14ac:dyDescent="0.25">
@@ -6791,7 +4156,7 @@
     <row r="175" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D175">
         <f ca="1"/>
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="176" spans="4:4" x14ac:dyDescent="0.25">
@@ -6803,7 +4168,7 @@
     <row r="177" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D177">
         <f ca="1"/>
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="178" spans="4:4" x14ac:dyDescent="0.25">
@@ -6827,7 +4192,7 @@
     <row r="181" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D181">
         <f ca="1"/>
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="182" spans="4:4" x14ac:dyDescent="0.25">
@@ -6839,7 +4204,7 @@
     <row r="183" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D183">
         <f ca="1"/>
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="184" spans="4:4" x14ac:dyDescent="0.25">
@@ -6851,7 +4216,7 @@
     <row r="185" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D185">
         <f ca="1"/>
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="186" spans="4:4" x14ac:dyDescent="0.25">
@@ -6863,7 +4228,7 @@
     <row r="187" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D187">
         <f ca="1"/>
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="188" spans="4:4" x14ac:dyDescent="0.25">
@@ -6875,7 +4240,7 @@
     <row r="189" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D189">
         <f ca="1"/>
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="190" spans="4:4" x14ac:dyDescent="0.25">
@@ -6887,7 +4252,7 @@
     <row r="191" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D191">
         <f ca="1"/>
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="192" spans="4:4" x14ac:dyDescent="0.25">
@@ -6899,7 +4264,7 @@
     <row r="193" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D193">
         <f ca="1"/>
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="194" spans="4:4" x14ac:dyDescent="0.25">
@@ -6917,7 +4282,7 @@
     <row r="196" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D196">
         <f ca="1"/>
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="197" spans="4:4" x14ac:dyDescent="0.25">
@@ -6929,7 +4294,7 @@
     <row r="198" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D198">
         <f ca="1"/>
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="199" spans="4:4" x14ac:dyDescent="0.25">
@@ -6941,7 +4306,7 @@
     <row r="200" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D200">
         <f ca="1"/>
-        <v>-1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="201" spans="4:4" x14ac:dyDescent="0.25">
@@ -6953,7 +4318,7 @@
     <row r="202" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D202">
         <f ca="1"/>
-        <v>12</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="4:4" x14ac:dyDescent="0.25">
@@ -6965,7 +4330,7 @@
     <row r="204" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D204">
         <f ca="1"/>
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="205" spans="4:4" x14ac:dyDescent="0.25">
@@ -6983,7 +4348,7 @@
     <row r="207" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D207">
         <f ca="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="208" spans="4:4" x14ac:dyDescent="0.25">
@@ -6995,7 +4360,7 @@
     <row r="209" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D209">
         <f ca="1"/>
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="210" spans="4:4" x14ac:dyDescent="0.25">
@@ -7031,7 +4396,7 @@
     <row r="215" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D215">
         <f ca="1"/>
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="216" spans="4:4" x14ac:dyDescent="0.25">
@@ -7055,7 +4420,7 @@
     <row r="219" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D219">
         <f ca="1"/>
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="220" spans="4:4" x14ac:dyDescent="0.25">
@@ -7067,7 +4432,7 @@
     <row r="221" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D221">
         <f ca="1"/>
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="222" spans="4:4" x14ac:dyDescent="0.25">
@@ -7079,7 +4444,7 @@
     <row r="223" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D223">
         <f ca="1"/>
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="224" spans="4:4" x14ac:dyDescent="0.25">
@@ -7091,7 +4456,7 @@
     <row r="225" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D225">
         <f ca="1"/>
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="226" spans="4:4" x14ac:dyDescent="0.25">
@@ -7103,7 +4468,7 @@
     <row r="227" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D227">
         <f ca="1"/>
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="228" spans="4:4" x14ac:dyDescent="0.25">
@@ -7115,7 +4480,7 @@
     <row r="229" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D229">
         <f ca="1"/>
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="230" spans="4:4" x14ac:dyDescent="0.25">
@@ -7133,7 +4498,7 @@
     <row r="232" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D232">
         <f ca="1"/>
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="233" spans="4:4" x14ac:dyDescent="0.25">
@@ -7145,7 +4510,7 @@
     <row r="234" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D234">
         <f ca="1"/>
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="235" spans="4:4" x14ac:dyDescent="0.25">
@@ -7190,17 +4555,26 @@
         <v>37</v>
       </c>
     </row>
+    <row r="242" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D242">
+        <f ca="1"/>
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G7:J7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20D81E04-E057-491C-A2C7-ACC5BF26D06B}">
-  <dimension ref="A1:AS245"/>
+  <dimension ref="A1:AS246"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="AH32" sqref="AH32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7291,12 +4665,12 @@
         <v>16</v>
       </c>
       <c r="D5" cm="1">
-        <f t="array" aca="1" ref="D5:D245" ca="1">_xlfn.VSTACK(1,_xlfn.DROP(_xlfn.NUMBERVALUE(_xlfn.TEXTSPLIT(_xlfn.CONCAT(_xlfn.BYROW(_xlfn.HSTACK(_xlfn.ANCHORARRAY(B5),_xlfn.ANCHORARRAY(C5)),_xlfn.LAMBDA(_xlpm.a,","&amp;_xlfn.TEXTJOIN(",",,_xlpm.a)))),,",")),1))</f>
+        <f t="array" aca="1" ref="D5:D246" ca="1">_xlfn.VSTACK(1,1,_xlfn.DROP(_xlfn.NUMBERVALUE(_xlfn.TEXTSPLIT(_xlfn.CONCAT(_xlfn.BYROW(_xlfn.HSTACK(_xlfn.ANCHORARRAY(B5),_xlfn.ANCHORARRAY(C5)),_xlfn.LAMBDA(_xlpm.a,","&amp;_xlfn.TEXTJOIN(",",,_xlpm.a)))),,",")),1))</f>
         <v>1</v>
       </c>
       <c r="E5" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">SUM(_xlfn.ANCHORARRAY(E28)*_xlfn.ANCHORARRAY(F28))</f>
-        <v>13140</v>
+        <v>14300</v>
       </c>
       <c r="F5" t="str" cm="1">
         <f t="array" ref="F5:AS10">MID(F35:F40,_xlfn.SEQUENCE(1,40),1)</f>
@@ -7433,7 +4807,7 @@
       </c>
       <c r="D6">
         <f ca="1"/>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>16</v>
@@ -7711,7 +5085,7 @@
       </c>
       <c r="D8">
         <f ca="1"/>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -7986,7 +5360,7 @@
       </c>
       <c r="D10">
         <f ca="1"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F10" t="str">
         <v>#</v>
@@ -8138,23 +5512,23 @@
       </c>
       <c r="D12">
         <f ca="1"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F12" t="str" cm="1">
-        <f t="array" aca="1" ref="F12:AS17" ca="1">_xlfn.LET(_xlpm.x,_xlfn.SEQUENCE(1,40,0),_xlfn.MAP(INDEX(_xlfn.ANCHORARRAY(D5),_xlfn.SEQUENCE(6,40)),_xlfn.VSTACK(_xlpm.x,_xlpm.x,_xlpm.x,_xlpm.x,_xlpm.x,_xlpm.x),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,IF(OR(_xlpm.b+1=_xlpm.a,_xlpm.b-1=_xlpm.a,_xlpm.a=_xlpm.b),"#",""))))</f>
+        <f t="array" aca="1" ref="F12:AS17" ca="1">_xlfn.LET(_xlpm.x,_xlfn.SEQUENCE(1,40,0),_xlfn.MAP(INDEX(_xlfn.ANCHORARRAY(D5),_xlfn.SEQUENCE(6,40)),_xlfn.VSTACK(_xlpm.x,_xlpm.x,_xlpm.x,_xlpm.x,_xlpm.x,_xlpm.x),_xlfn.LAMBDA(_xlpm.a,_xlpm.b,IF(OR(_xlpm.b+1=_xlpm.a,_xlpm.b-1=_xlpm.a,_xlpm.a=_xlpm.b),"#","."))))</f>
         <v>#</v>
       </c>
       <c r="G12" t="str">
         <f ca="1"/>
-        <v/>
+        <v>#</v>
       </c>
       <c r="H12" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="I12" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="J12" t="str">
         <f ca="1"/>
@@ -8162,15 +5536,15 @@
       </c>
       <c r="K12" t="str">
         <f ca="1"/>
-        <v/>
+        <v>#</v>
       </c>
       <c r="L12" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="M12" t="str">
         <f ca="1"/>
-        <v>#</v>
+        <v>.</v>
       </c>
       <c r="N12" t="str">
         <f ca="1"/>
@@ -8178,15 +5552,15 @@
       </c>
       <c r="O12" t="str">
         <f ca="1"/>
-        <v/>
+        <v>#</v>
       </c>
       <c r="P12" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="Q12" t="str">
         <f ca="1"/>
-        <v>#</v>
+        <v>.</v>
       </c>
       <c r="R12" t="str">
         <f ca="1"/>
@@ -8194,15 +5568,15 @@
       </c>
       <c r="S12" t="str">
         <f ca="1"/>
-        <v/>
+        <v>#</v>
       </c>
       <c r="T12" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="U12" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="V12" t="str">
         <f ca="1"/>
@@ -8210,15 +5584,15 @@
       </c>
       <c r="W12" t="str">
         <f ca="1"/>
-        <v/>
+        <v>#</v>
       </c>
       <c r="X12" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="Y12" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="Z12" t="str">
         <f ca="1"/>
@@ -8230,11 +5604,11 @@
       </c>
       <c r="AB12" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AC12" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AD12" t="str">
         <f ca="1"/>
@@ -8246,11 +5620,11 @@
       </c>
       <c r="AF12" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AG12" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AH12" t="str">
         <f ca="1"/>
@@ -8262,11 +5636,11 @@
       </c>
       <c r="AJ12" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AK12" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AL12" t="str">
         <f ca="1"/>
@@ -8278,11 +5652,11 @@
       </c>
       <c r="AN12" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AO12" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AP12" t="str">
         <f ca="1"/>
@@ -8294,11 +5668,11 @@
       </c>
       <c r="AR12" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AS12" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
@@ -8318,7 +5692,7 @@
       </c>
       <c r="F13" t="str">
         <f ca="1"/>
-        <v/>
+        <v>#</v>
       </c>
       <c r="G13" t="str">
         <f ca="1"/>
@@ -8326,23 +5700,23 @@
       </c>
       <c r="H13" t="str">
         <f ca="1"/>
-        <v/>
+        <v>#</v>
       </c>
       <c r="I13" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="J13" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="K13" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="L13" t="str">
         <f ca="1"/>
-        <v/>
+        <v>#</v>
       </c>
       <c r="M13" t="str">
         <f ca="1"/>
@@ -8350,19 +5724,19 @@
       </c>
       <c r="N13" t="str">
         <f ca="1"/>
-        <v/>
+        <v>#</v>
       </c>
       <c r="O13" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="P13" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="Q13" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="R13" t="str">
         <f ca="1"/>
@@ -8374,19 +5748,19 @@
       </c>
       <c r="T13" t="str">
         <f ca="1"/>
-        <v/>
+        <v>#</v>
       </c>
       <c r="U13" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="V13" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="W13" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="X13" t="str">
         <f ca="1"/>
@@ -8398,23 +5772,23 @@
       </c>
       <c r="Z13" t="str">
         <f ca="1"/>
-        <v/>
+        <v>#</v>
       </c>
       <c r="AA13" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AB13" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AC13" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AD13" t="str">
         <f ca="1"/>
-        <v/>
+        <v>#</v>
       </c>
       <c r="AE13" t="str">
         <f ca="1"/>
@@ -8422,23 +5796,23 @@
       </c>
       <c r="AF13" t="str">
         <f ca="1"/>
-        <v/>
+        <v>#</v>
       </c>
       <c r="AG13" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AH13" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AI13" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AJ13" t="str">
         <f ca="1"/>
-        <v/>
+        <v>#</v>
       </c>
       <c r="AK13" t="str">
         <f ca="1"/>
@@ -8446,19 +5820,19 @@
       </c>
       <c r="AL13" t="str">
         <f ca="1"/>
-        <v/>
+        <v>#</v>
       </c>
       <c r="AM13" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AN13" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AO13" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AP13" t="str">
         <f ca="1"/>
@@ -8474,7 +5848,7 @@
       </c>
       <c r="AS13" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.25">
@@ -8490,7 +5864,7 @@
       </c>
       <c r="D14">
         <f ca="1"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F14" t="str">
         <f ca="1"/>
@@ -8510,19 +5884,19 @@
       </c>
       <c r="J14" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="K14" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="L14" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="M14" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="N14" t="str">
         <f ca="1"/>
@@ -8530,7 +5904,7 @@
       </c>
       <c r="O14" t="str">
         <f ca="1"/>
-        <v/>
+        <v>#</v>
       </c>
       <c r="P14" t="str">
         <f ca="1"/>
@@ -8538,23 +5912,23 @@
       </c>
       <c r="Q14" t="str">
         <f ca="1"/>
-        <v/>
+        <v>#</v>
       </c>
       <c r="R14" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="S14" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="T14" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="U14" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="V14" t="str">
         <f ca="1"/>
@@ -8574,23 +5948,23 @@
       </c>
       <c r="Z14" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AA14" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AB14" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AC14" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AD14" t="str">
         <f ca="1"/>
-        <v/>
+        <v>#</v>
       </c>
       <c r="AE14" t="str">
         <f ca="1"/>
@@ -8602,23 +5976,23 @@
       </c>
       <c r="AG14" t="str">
         <f ca="1"/>
-        <v/>
+        <v>#</v>
       </c>
       <c r="AH14" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AI14" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AJ14" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AK14" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AL14" t="str">
         <f ca="1"/>
@@ -8638,19 +6012,19 @@
       </c>
       <c r="AP14" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AQ14" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AR14" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AS14" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.25">
@@ -8674,7 +6048,7 @@
       </c>
       <c r="G15" t="str">
         <f ca="1"/>
-        <v/>
+        <v>#</v>
       </c>
       <c r="H15" t="str">
         <f ca="1"/>
@@ -8690,23 +6064,23 @@
       </c>
       <c r="K15" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="L15" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="M15" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="N15" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="O15" t="str">
         <f ca="1"/>
-        <v>#</v>
+        <v>.</v>
       </c>
       <c r="P15" t="str">
         <f ca="1"/>
@@ -8730,27 +6104,27 @@
       </c>
       <c r="U15" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="V15" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="W15" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="X15" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="Y15" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="Z15" t="str">
         <f ca="1"/>
-        <v/>
+        <v>#</v>
       </c>
       <c r="AA15" t="str">
         <f ca="1"/>
@@ -8766,31 +6140,31 @@
       </c>
       <c r="AD15" t="str">
         <f ca="1"/>
-        <v/>
+        <v>#</v>
       </c>
       <c r="AE15" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AF15" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AG15" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AH15" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AI15" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AJ15" t="str">
         <f ca="1"/>
-        <v/>
+        <v>#</v>
       </c>
       <c r="AK15" t="str">
         <f ca="1"/>
@@ -8810,23 +6184,23 @@
       </c>
       <c r="AO15" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AP15" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AQ15" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AR15" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AS15" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.25">
@@ -8842,7 +6216,7 @@
       </c>
       <c r="D16">
         <f ca="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F16" t="str">
         <f ca="1"/>
@@ -8858,7 +6232,7 @@
       </c>
       <c r="I16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>#</v>
       </c>
       <c r="J16" t="str">
         <f ca="1"/>
@@ -8866,31 +6240,31 @@
       </c>
       <c r="K16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>#</v>
       </c>
       <c r="L16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="M16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="N16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="O16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="P16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="Q16" t="str">
         <f ca="1"/>
-        <v>#</v>
+        <v>.</v>
       </c>
       <c r="R16" t="str">
         <f ca="1"/>
@@ -8898,7 +6272,7 @@
       </c>
       <c r="S16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>#</v>
       </c>
       <c r="T16" t="str">
         <f ca="1"/>
@@ -8918,31 +6292,31 @@
       </c>
       <c r="X16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="Y16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="Z16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AA16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AB16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AC16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AD16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>#</v>
       </c>
       <c r="AE16" t="str">
         <f ca="1"/>
@@ -8950,7 +6324,7 @@
       </c>
       <c r="AF16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>#</v>
       </c>
       <c r="AG16" t="str">
         <f ca="1"/>
@@ -8966,27 +6340,27 @@
       </c>
       <c r="AJ16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AK16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AL16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AM16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AN16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AO16" t="str">
         <f ca="1"/>
-        <v>#</v>
+        <v>.</v>
       </c>
       <c r="AP16" t="str">
         <f ca="1"/>
@@ -9002,7 +6376,7 @@
       </c>
       <c r="AS16" t="str">
         <f ca="1"/>
-        <v/>
+        <v>#</v>
       </c>
     </row>
     <row r="17" spans="1:45" x14ac:dyDescent="0.25">
@@ -9034,7 +6408,7 @@
       </c>
       <c r="I17" t="str">
         <f ca="1"/>
-        <v/>
+        <v>#</v>
       </c>
       <c r="J17" t="str">
         <f ca="1"/>
@@ -9046,39 +6420,39 @@
       </c>
       <c r="L17" t="str">
         <f ca="1"/>
-        <v/>
+        <v>#</v>
       </c>
       <c r="M17" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="N17" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="O17" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="P17" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="Q17" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="R17" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="S17" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="T17" t="str">
         <f ca="1"/>
-        <v/>
+        <v>#</v>
       </c>
       <c r="U17" t="str">
         <f ca="1"/>
@@ -9106,35 +6480,35 @@
       </c>
       <c r="AA17" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AB17" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AC17" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AD17" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AE17" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AF17" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AG17" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AH17" t="str">
         <f ca="1"/>
-        <v/>
+        <v>#</v>
       </c>
       <c r="AI17" t="str">
         <f ca="1"/>
@@ -9142,7 +6516,7 @@
       </c>
       <c r="AJ17" t="str">
         <f ca="1"/>
-        <v/>
+        <v>#</v>
       </c>
       <c r="AK17" t="str">
         <f ca="1"/>
@@ -9150,7 +6524,7 @@
       </c>
       <c r="AL17" t="str">
         <f ca="1"/>
-        <v/>
+        <v>#</v>
       </c>
       <c r="AM17" t="str">
         <f ca="1"/>
@@ -9158,27 +6532,27 @@
       </c>
       <c r="AN17" t="str">
         <f ca="1"/>
-        <v/>
+        <v>#</v>
       </c>
       <c r="AO17" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AP17" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AQ17" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AR17" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
       <c r="AS17" t="str">
         <f ca="1"/>
-        <v/>
+        <v>.</v>
       </c>
     </row>
     <row r="18" spans="1:45" x14ac:dyDescent="0.25">
@@ -9194,7 +6568,7 @@
       </c>
       <c r="D18">
         <f ca="1"/>
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:45" x14ac:dyDescent="0.25">
@@ -9218,155 +6592,155 @@
       </c>
       <c r="G19">
         <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <f ca="1"/>
         <v>16</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <f ca="1"/>
         <v>16</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <f ca="1"/>
         <v>5</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <f ca="1"/>
         <v>5</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <f ca="1"/>
         <v>11</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <f ca="1"/>
         <v>11</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <f ca="1"/>
         <v>8</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <f ca="1"/>
         <v>8</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <f ca="1"/>
         <v>13</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <f ca="1"/>
         <v>13</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <f ca="1"/>
         <v>12</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <f ca="1"/>
         <v>12</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <f ca="1"/>
         <v>4</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <f ca="1"/>
         <v>4</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <f ca="1"/>
         <v>17</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <f ca="1"/>
         <v>17</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <f ca="1"/>
         <v>21</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <f ca="1"/>
         <v>21</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <f ca="1"/>
         <v>21</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <f ca="1"/>
         <v>20</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <f ca="1"/>
         <v>20</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <f ca="1"/>
         <v>25</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <f ca="1"/>
         <v>25</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <f ca="1"/>
         <v>24</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <f ca="1"/>
         <v>24</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <f ca="1"/>
         <v>29</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <f ca="1"/>
         <v>29</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <f ca="1"/>
         <v>28</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <f ca="1"/>
         <v>28</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <f ca="1"/>
         <v>33</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <f ca="1"/>
         <v>33</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <f ca="1"/>
         <v>32</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <f ca="1"/>
         <v>32</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <f ca="1"/>
         <v>37</v>
       </c>
-      <c r="AO19">
+      <c r="AP19">
         <f ca="1"/>
         <v>37</v>
       </c>
-      <c r="AP19">
+      <c r="AQ19">
         <f ca="1"/>
         <v>36</v>
       </c>
-      <c r="AQ19">
+      <c r="AR19">
         <f ca="1"/>
         <v>36</v>
-      </c>
-      <c r="AR19">
-        <f ca="1"/>
-        <v>1</v>
       </c>
       <c r="AS19">
         <f ca="1"/>
@@ -9386,167 +6760,167 @@
       </c>
       <c r="D20">
         <f ca="1"/>
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F20">
         <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <f ca="1"/>
         <v>2</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <f ca="1"/>
         <v>2</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <f ca="1"/>
         <v>26</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <f ca="1"/>
         <v>26</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <f ca="1"/>
         <v>8</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <f ca="1"/>
         <v>8</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <f ca="1"/>
         <v>24</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <f ca="1"/>
         <v>24</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <f ca="1"/>
         <v>13</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <f ca="1"/>
         <v>13</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <f ca="1"/>
         <v>13</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <f ca="1"/>
         <v>13</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <f ca="1"/>
         <v>34</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <f ca="1"/>
         <v>34</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <f ca="1"/>
         <v>19</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <f ca="1"/>
         <v>19</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <f ca="1"/>
         <v>19</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <f ca="1"/>
         <v>19</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <f ca="1"/>
         <v>16</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <f ca="1"/>
         <v>16</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <f ca="1"/>
         <v>25</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <f ca="1"/>
         <v>25</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <f ca="1"/>
         <v>26</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <f ca="1"/>
         <v>26</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <f ca="1"/>
         <v>23</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <f ca="1"/>
         <v>23</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <f ca="1"/>
         <v>31</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <f ca="1"/>
         <v>31</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <f ca="1"/>
         <v>32</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <f ca="1"/>
         <v>32</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <f ca="1"/>
         <v>37</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <f ca="1"/>
         <v>37</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <f ca="1"/>
         <v>37</v>
       </c>
-      <c r="AO20">
+      <c r="AP20">
         <f ca="1"/>
         <v>37</v>
       </c>
-      <c r="AP20">
+      <c r="AQ20">
         <f ca="1"/>
         <v>37</v>
       </c>
-      <c r="AQ20">
+      <c r="AR20">
         <f ca="1"/>
         <v>37</v>
       </c>
-      <c r="AR20">
+      <c r="AS20">
         <f ca="1"/>
         <v>37</v>
-      </c>
-      <c r="AS20">
-        <f ca="1"/>
-        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:45" x14ac:dyDescent="0.25">
@@ -9574,143 +6948,143 @@
       </c>
       <c r="H21">
         <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <f ca="1"/>
         <v>2</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <f ca="1"/>
         <v>2</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <f ca="1"/>
         <v>9</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <f ca="1"/>
         <v>9</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <f ca="1"/>
         <v>9</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <f ca="1"/>
         <v>9</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <f ca="1"/>
         <v>9</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <f ca="1"/>
         <v>11</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <f ca="1"/>
         <v>11</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <f ca="1"/>
         <v>17</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <f ca="1"/>
         <v>17</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <f ca="1"/>
         <v>17</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <f ca="1"/>
         <v>17</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <f ca="1"/>
         <v>17</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <f ca="1"/>
         <v>17</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <f ca="1"/>
         <v>17</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <f ca="1"/>
         <v>18</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <f ca="1"/>
         <v>18</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <f ca="1"/>
         <v>18</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <f ca="1"/>
         <v>18</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <f ca="1"/>
         <v>25</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <f ca="1"/>
         <v>25</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <f ca="1"/>
         <v>26</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <f ca="1"/>
         <v>26</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <f ca="1"/>
         <v>26</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <f ca="1"/>
         <v>13</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <f ca="1"/>
         <v>13</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <f ca="1"/>
         <v>26</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <f ca="1"/>
         <v>26</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <f ca="1"/>
         <v>33</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <f ca="1"/>
         <v>33</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <f ca="1"/>
         <v>33</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <f ca="1"/>
         <v>34</v>
       </c>
-      <c r="AO21">
+      <c r="AP21">
         <f ca="1"/>
         <v>34</v>
-      </c>
-      <c r="AP21">
-        <f ca="1"/>
-        <v>1</v>
       </c>
       <c r="AQ21">
         <f ca="1"/>
@@ -9738,167 +7112,167 @@
       </c>
       <c r="D22">
         <f ca="1"/>
+        <v>17</v>
+      </c>
+      <c r="F22">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="K22">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="M22">
+        <f ca="1"/>
+        <v>11</v>
+      </c>
+      <c r="N22">
+        <f ca="1"/>
+        <v>11</v>
+      </c>
+      <c r="O22">
+        <f ca="1"/>
+        <v>11</v>
+      </c>
+      <c r="P22">
+        <f ca="1"/>
+        <v>10</v>
+      </c>
+      <c r="Q22">
+        <f ca="1"/>
+        <v>10</v>
+      </c>
+      <c r="R22">
+        <f ca="1"/>
+        <v>12</v>
+      </c>
+      <c r="S22">
+        <f ca="1"/>
+        <v>12</v>
+      </c>
+      <c r="T22">
+        <f ca="1"/>
+        <v>13</v>
+      </c>
+      <c r="U22">
+        <f ca="1"/>
+        <v>13</v>
+      </c>
+      <c r="V22">
+        <f ca="1"/>
+        <v>13</v>
+      </c>
+      <c r="W22">
+        <f ca="1"/>
+        <v>30</v>
+      </c>
+      <c r="X22">
+        <f ca="1"/>
+        <v>30</v>
+      </c>
+      <c r="Y22">
+        <f ca="1"/>
         <v>21</v>
       </c>
-      <c r="F22">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <f ca="1"/>
-        <v>3</v>
-      </c>
-      <c r="H22">
-        <f ca="1"/>
-        <v>3</v>
-      </c>
-      <c r="I22">
-        <f ca="1"/>
-        <v>3</v>
-      </c>
-      <c r="J22">
-        <f ca="1"/>
-        <v>3</v>
-      </c>
-      <c r="K22">
-        <f ca="1"/>
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <f ca="1"/>
-        <v>11</v>
-      </c>
-      <c r="M22">
-        <f ca="1"/>
-        <v>11</v>
-      </c>
-      <c r="N22">
-        <f ca="1"/>
-        <v>11</v>
-      </c>
-      <c r="O22">
-        <f ca="1"/>
-        <v>10</v>
-      </c>
-      <c r="P22">
-        <f ca="1"/>
-        <v>10</v>
-      </c>
-      <c r="Q22">
-        <f ca="1"/>
-        <v>12</v>
-      </c>
-      <c r="R22">
-        <f ca="1"/>
-        <v>12</v>
-      </c>
-      <c r="S22">
-        <f ca="1"/>
-        <v>13</v>
-      </c>
-      <c r="T22">
-        <f ca="1"/>
-        <v>13</v>
-      </c>
-      <c r="U22">
-        <f ca="1"/>
-        <v>13</v>
-      </c>
-      <c r="V22">
-        <f ca="1"/>
-        <v>30</v>
-      </c>
-      <c r="W22">
-        <f ca="1"/>
-        <v>30</v>
-      </c>
-      <c r="X22">
+      <c r="Z22">
         <f ca="1"/>
         <v>21</v>
       </c>
-      <c r="Y22">
-        <f ca="1"/>
-        <v>21</v>
-      </c>
-      <c r="Z22">
+      <c r="AA22">
         <f ca="1"/>
         <v>22</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <f ca="1"/>
         <v>22</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <f ca="1"/>
         <v>23</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <f ca="1"/>
         <v>23</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <f ca="1"/>
         <v>20</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <f ca="1"/>
         <v>20</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <f ca="1"/>
         <v>31</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <f ca="1"/>
         <v>31</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <f ca="1"/>
         <v>31</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <f ca="1"/>
         <v>31</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <f ca="1"/>
         <v>32</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <f ca="1"/>
         <v>32</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <f ca="1"/>
         <v>32</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <f ca="1"/>
         <v>33</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <f ca="1"/>
         <v>33</v>
       </c>
-      <c r="AO22">
+      <c r="AP22">
         <f ca="1"/>
         <v>33</v>
       </c>
-      <c r="AP22">
+      <c r="AQ22">
         <f ca="1"/>
         <v>33</v>
       </c>
-      <c r="AQ22">
+      <c r="AR22">
         <f ca="1"/>
         <v>20</v>
       </c>
-      <c r="AR22">
+      <c r="AS22">
         <f ca="1"/>
         <v>20</v>
-      </c>
-      <c r="AS22">
-        <f ca="1"/>
-        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:45" x14ac:dyDescent="0.25">
@@ -9922,159 +7296,159 @@
       </c>
       <c r="G23">
         <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <f ca="1"/>
         <v>2</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <f ca="1"/>
         <v>2</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <f ca="1"/>
         <v>5</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <f ca="1"/>
         <v>5</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <f ca="1"/>
         <v>31</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <f ca="1"/>
         <v>31</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <f ca="1"/>
         <v>1</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <f ca="1"/>
         <v>1</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <f ca="1"/>
         <v>13</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <f ca="1"/>
         <v>13</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <f ca="1"/>
         <v>12</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <f ca="1"/>
         <v>12</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <f ca="1"/>
         <v>15</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <f ca="1"/>
         <v>15</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <f ca="1"/>
         <v>16</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <f ca="1"/>
         <v>16</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <f ca="1"/>
         <v>16</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <f ca="1"/>
         <v>16</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <f ca="1"/>
         <v>16</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <f ca="1"/>
         <v>25</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <f ca="1"/>
         <v>25</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <f ca="1"/>
         <v>26</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <f ca="1"/>
         <v>26</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <f ca="1"/>
         <v>28</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <f ca="1"/>
         <v>28</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <f ca="1"/>
         <v>28</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <f ca="1"/>
         <v>28</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <f ca="1"/>
         <v>37</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <f ca="1"/>
         <v>37</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <f ca="1"/>
         <v>37</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <f ca="1"/>
         <v>37</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <f ca="1"/>
         <v>37</v>
       </c>
-      <c r="AO23">
+      <c r="AP23">
         <f ca="1"/>
         <v>36</v>
       </c>
-      <c r="AP23">
+      <c r="AQ23">
         <f ca="1"/>
         <v>36</v>
       </c>
-      <c r="AQ23">
+      <c r="AR23">
         <f ca="1"/>
         <v>38</v>
       </c>
-      <c r="AR23">
+      <c r="AS23">
         <f ca="1"/>
         <v>38</v>
-      </c>
-      <c r="AS23">
-        <f ca="1"/>
-        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:45" x14ac:dyDescent="0.25">
@@ -10098,147 +7472,147 @@
       </c>
       <c r="G24">
         <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <f ca="1"/>
         <v>2</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <f ca="1"/>
         <v>2</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <f ca="1"/>
         <v>5</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <f ca="1"/>
         <v>5</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <f ca="1"/>
         <v>5</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <f ca="1"/>
         <v>20</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <f ca="1"/>
         <v>20</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <f ca="1"/>
         <v>-1</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <f ca="1"/>
         <v>-1</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <f ca="1"/>
         <v>21</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <f ca="1"/>
         <v>21</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <f ca="1"/>
         <v>15</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <f ca="1"/>
         <v>15</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <f ca="1"/>
         <v>16</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <f ca="1"/>
         <v>16</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <f ca="1"/>
         <v>16</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <f ca="1"/>
         <v>18</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <f ca="1"/>
         <v>18</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <f ca="1"/>
         <v>19</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <f ca="1"/>
         <v>19</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <f ca="1"/>
         <v>19</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <f ca="1"/>
         <v>9</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <f ca="1"/>
         <v>9</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <f ca="1"/>
         <v>9</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <f ca="1"/>
         <v>9</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <f ca="1"/>
         <v>29</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <f ca="1"/>
         <v>29</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <f ca="1"/>
         <v>30</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <f ca="1"/>
         <v>30</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <f ca="1"/>
         <v>32</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <f ca="1"/>
         <v>32</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <f ca="1"/>
         <v>34</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <f ca="1"/>
         <v>34</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <f ca="1"/>
         <v>28</v>
       </c>
-      <c r="AO24">
+      <c r="AP24">
         <f ca="1"/>
         <v>28</v>
-      </c>
-      <c r="AP24">
-        <f ca="1"/>
-        <v>17</v>
       </c>
       <c r="AQ24">
         <f ca="1"/>
@@ -10266,7 +7640,7 @@
       </c>
       <c r="D25">
         <f ca="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:45" x14ac:dyDescent="0.25">
@@ -10298,7 +7672,7 @@
       </c>
       <c r="D27">
         <f ca="1"/>
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:45" x14ac:dyDescent="0.25">
@@ -10338,7 +7712,7 @@
       </c>
       <c r="D29">
         <f ca="1"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E29">
         <f ca="1"/>
@@ -10365,7 +7739,7 @@
       </c>
       <c r="E30">
         <f ca="1"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F30">
         <v>100</v>
@@ -10384,11 +7758,11 @@
       </c>
       <c r="D31">
         <f ca="1"/>
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <f ca="1"/>
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F31">
         <v>140</v>
@@ -10430,7 +7804,7 @@
       </c>
       <c r="D33">
         <f ca="1"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E33">
         <f ca="1"/>
@@ -10469,7 +7843,7 @@
       </c>
       <c r="D35">
         <f ca="1"/>
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F35" t="s">
         <v>55</v>
@@ -10507,7 +7881,7 @@
       </c>
       <c r="D37">
         <f ca="1"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F37" t="s">
         <v>57</v>
@@ -10545,7 +7919,7 @@
       </c>
       <c r="D39">
         <f ca="1"/>
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F39" t="s">
         <v>59</v>
@@ -10583,7 +7957,7 @@
       </c>
       <c r="D41">
         <f ca="1"/>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -10615,7 +7989,7 @@
       </c>
       <c r="D43">
         <f ca="1"/>
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -10647,7 +8021,7 @@
       </c>
       <c r="D45">
         <f ca="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -10679,7 +8053,7 @@
       </c>
       <c r="D47">
         <f ca="1"/>
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -10711,7 +8085,7 @@
       </c>
       <c r="D49">
         <f ca="1"/>
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -10743,7 +8117,7 @@
       </c>
       <c r="D51">
         <f ca="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -10775,7 +8149,7 @@
       </c>
       <c r="D53">
         <f ca="1"/>
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -10807,7 +8181,7 @@
       </c>
       <c r="D55">
         <f ca="1"/>
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -10871,7 +8245,7 @@
       </c>
       <c r="D59">
         <f ca="1"/>
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -10903,7 +8277,7 @@
       </c>
       <c r="D61">
         <f ca="1"/>
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -10967,7 +8341,7 @@
       </c>
       <c r="D65">
         <f ca="1"/>
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -10999,7 +8373,7 @@
       </c>
       <c r="D67">
         <f ca="1"/>
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -11031,7 +8405,7 @@
       </c>
       <c r="D69">
         <f ca="1"/>
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -11063,7 +8437,7 @@
       </c>
       <c r="D71">
         <f ca="1"/>
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -11095,7 +8469,7 @@
       </c>
       <c r="D73">
         <f ca="1"/>
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -11127,7 +8501,7 @@
       </c>
       <c r="D75">
         <f ca="1"/>
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -11159,7 +8533,7 @@
       </c>
       <c r="D77">
         <f ca="1"/>
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -11271,7 +8645,7 @@
       </c>
       <c r="D84">
         <f ca="1"/>
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -11319,7 +8693,7 @@
       </c>
       <c r="D87">
         <f ca="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -11351,7 +8725,7 @@
       </c>
       <c r="D89">
         <f ca="1"/>
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -11431,7 +8805,7 @@
       </c>
       <c r="D94">
         <f ca="1"/>
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -11463,7 +8837,7 @@
       </c>
       <c r="D96">
         <f ca="1"/>
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -11575,7 +8949,7 @@
       </c>
       <c r="D103">
         <f ca="1"/>
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -11639,7 +9013,7 @@
       </c>
       <c r="D107">
         <f ca="1"/>
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -11671,7 +9045,7 @@
       </c>
       <c r="D109">
         <f ca="1"/>
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -11719,7 +9093,7 @@
       </c>
       <c r="D112">
         <f ca="1"/>
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -11751,7 +9125,7 @@
       </c>
       <c r="D114">
         <f ca="1"/>
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -11783,7 +9157,7 @@
       </c>
       <c r="D116">
         <f ca="1"/>
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -11831,7 +9205,7 @@
       </c>
       <c r="D119">
         <f ca="1"/>
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -11863,7 +9237,7 @@
       </c>
       <c r="D121">
         <f ca="1"/>
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -11943,7 +9317,7 @@
       </c>
       <c r="D126">
         <f ca="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -12023,7 +9397,7 @@
       </c>
       <c r="D131">
         <f ca="1"/>
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -12071,7 +9445,7 @@
       </c>
       <c r="D134">
         <f ca="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -12103,7 +9477,7 @@
       </c>
       <c r="D136">
         <f ca="1"/>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -12135,7 +9509,7 @@
       </c>
       <c r="D138">
         <f ca="1"/>
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -12183,7 +9557,7 @@
       </c>
       <c r="D141">
         <f ca="1"/>
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -12215,7 +9589,7 @@
       </c>
       <c r="D143">
         <f ca="1"/>
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -12247,7 +9621,7 @@
       </c>
       <c r="D145">
         <f ca="1"/>
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -12279,7 +9653,7 @@
       </c>
       <c r="D147">
         <f ca="1"/>
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -12311,7 +9685,7 @@
       </c>
       <c r="D149">
         <f ca="1"/>
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -12333,7 +9707,7 @@
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D151">
         <f ca="1"/>
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -12357,7 +9731,7 @@
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D155">
         <f ca="1"/>
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -12375,7 +9749,7 @@
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D158">
         <f ca="1"/>
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -12399,7 +9773,7 @@
     <row r="162" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D162">
         <f ca="1"/>
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="163" spans="4:4" x14ac:dyDescent="0.25">
@@ -12411,7 +9785,7 @@
     <row r="164" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D164">
         <f ca="1"/>
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="165" spans="4:4" x14ac:dyDescent="0.25">
@@ -12423,7 +9797,7 @@
     <row r="166" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D166">
         <f ca="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="4:4" x14ac:dyDescent="0.25">
@@ -12435,7 +9809,7 @@
     <row r="168" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D168">
         <f ca="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="4:4" x14ac:dyDescent="0.25">
@@ -12447,7 +9821,7 @@
     <row r="170" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D170">
         <f ca="1"/>
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="171" spans="4:4" x14ac:dyDescent="0.25">
@@ -12459,7 +9833,7 @@
     <row r="172" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D172">
         <f ca="1"/>
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="173" spans="4:4" x14ac:dyDescent="0.25">
@@ -12471,7 +9845,7 @@
     <row r="174" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D174">
         <f ca="1"/>
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="4:4" x14ac:dyDescent="0.25">
@@ -12483,7 +9857,7 @@
     <row r="176" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D176">
         <f ca="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="177" spans="4:4" x14ac:dyDescent="0.25">
@@ -12495,7 +9869,7 @@
     <row r="178" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D178">
         <f ca="1"/>
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="179" spans="4:4" x14ac:dyDescent="0.25">
@@ -12507,7 +9881,7 @@
     <row r="180" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D180">
         <f ca="1"/>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="181" spans="4:4" x14ac:dyDescent="0.25">
@@ -12537,7 +9911,7 @@
     <row r="185" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D185">
         <f ca="1"/>
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="186" spans="4:4" x14ac:dyDescent="0.25">
@@ -12549,7 +9923,7 @@
     <row r="187" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D187">
         <f ca="1"/>
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="188" spans="4:4" x14ac:dyDescent="0.25">
@@ -12561,7 +9935,7 @@
     <row r="189" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D189">
         <f ca="1"/>
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="190" spans="4:4" x14ac:dyDescent="0.25">
@@ -12573,7 +9947,7 @@
     <row r="191" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D191">
         <f ca="1"/>
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="192" spans="4:4" x14ac:dyDescent="0.25">
@@ -12597,7 +9971,7 @@
     <row r="195" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D195">
         <f ca="1"/>
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="196" spans="4:4" x14ac:dyDescent="0.25">
@@ -12627,7 +10001,7 @@
     <row r="200" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D200">
         <f ca="1"/>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="201" spans="4:4" x14ac:dyDescent="0.25">
@@ -12639,7 +10013,7 @@
     <row r="202" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D202">
         <f ca="1"/>
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="203" spans="4:4" x14ac:dyDescent="0.25">
@@ -12651,7 +10025,7 @@
     <row r="204" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D204">
         <f ca="1"/>
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="205" spans="4:4" x14ac:dyDescent="0.25">
@@ -12663,7 +10037,7 @@
     <row r="206" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D206">
         <f ca="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="4:4" x14ac:dyDescent="0.25">
@@ -12675,7 +10049,7 @@
     <row r="208" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D208">
         <f ca="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="4:4" x14ac:dyDescent="0.25">
@@ -12693,7 +10067,7 @@
     <row r="211" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D211">
         <f ca="1"/>
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="212" spans="4:4" x14ac:dyDescent="0.25">
@@ -12705,7 +10079,7 @@
     <row r="213" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D213">
         <f ca="1"/>
-        <v>-1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="214" spans="4:4" x14ac:dyDescent="0.25">
@@ -12717,7 +10091,7 @@
     <row r="215" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D215">
         <f ca="1"/>
-        <v>21</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="4:4" x14ac:dyDescent="0.25">
@@ -12729,7 +10103,7 @@
     <row r="217" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D217">
         <f ca="1"/>
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="218" spans="4:4" x14ac:dyDescent="0.25">
@@ -12741,7 +10115,7 @@
     <row r="219" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D219">
         <f ca="1"/>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="220" spans="4:4" x14ac:dyDescent="0.25">
@@ -12759,7 +10133,7 @@
     <row r="222" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D222">
         <f ca="1"/>
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="223" spans="4:4" x14ac:dyDescent="0.25">
@@ -12771,7 +10145,7 @@
     <row r="224" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D224">
         <f ca="1"/>
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="225" spans="4:4" x14ac:dyDescent="0.25">
@@ -12789,7 +10163,7 @@
     <row r="227" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D227">
         <f ca="1"/>
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="228" spans="4:4" x14ac:dyDescent="0.25">
@@ -12813,7 +10187,7 @@
     <row r="231" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D231">
         <f ca="1"/>
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="232" spans="4:4" x14ac:dyDescent="0.25">
@@ -12825,7 +10199,7 @@
     <row r="233" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D233">
         <f ca="1"/>
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="234" spans="4:4" x14ac:dyDescent="0.25">
@@ -12837,7 +10211,7 @@
     <row r="235" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D235">
         <f ca="1"/>
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="236" spans="4:4" x14ac:dyDescent="0.25">
@@ -12849,7 +10223,7 @@
     <row r="237" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D237">
         <f ca="1"/>
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="238" spans="4:4" x14ac:dyDescent="0.25">
@@ -12861,7 +10235,7 @@
     <row r="239" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D239">
         <f ca="1"/>
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="240" spans="4:4" x14ac:dyDescent="0.25">
@@ -12873,7 +10247,7 @@
     <row r="241" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D241">
         <f ca="1"/>
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="242" spans="4:4" x14ac:dyDescent="0.25">
@@ -12896,6 +10270,12 @@
     </row>
     <row r="245" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D245">
+        <f ca="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="246" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D246">
         <f ca="1"/>
         <v>17</v>
       </c>
